--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDC242301\Documents\卒業研究\03_設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C15C46-1F08-47CC-8198-23EB93964F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB63CA-1240-4E34-A29B-83759C9C9624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="17640" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="0" windowWidth="15708" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -895,44 +895,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,8 +940,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -6518,207 +6518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119111</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>125090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>592417</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>93141</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936E65AA-298D-4E2C-8A61-45EBD3FA61EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6803176" y="4216699"/>
-          <a:ext cx="904002" cy="672072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>現金投入</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>残高支払い</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>277265</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38714</xdr:rowOff>
+      <xdr:rowOff>43255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>119111</xdr:colOff>
+      <xdr:colOff>235195</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>42743</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200496DE-A104-47C6-A559-272466CDEFE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6489222" y="4552736"/>
-          <a:ext cx="313954" cy="4029"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>592417</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47169</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42126</xdr:rowOff>
+      <xdr:rowOff>43872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6730,14 +6539,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="3"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="34" idx="3"/>
           <a:endCxn id="41" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7707178" y="4552736"/>
-          <a:ext cx="506643" cy="3412"/>
+        <a:xfrm flipV="1">
+          <a:off x="6501914" y="4486606"/>
+          <a:ext cx="432943" cy="617"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6771,14 +6581,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47169</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>235195</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>128502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304411</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7527</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>96554</xdr:rowOff>
     </xdr:to>
@@ -6795,8 +6605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8213821" y="4220111"/>
-          <a:ext cx="1242873" cy="672073"/>
+          <a:off x="6934857" y="4156216"/>
+          <a:ext cx="1246852" cy="660780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6873,16 +6683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304411</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7527</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>42126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>687456</xdr:colOff>
+      <xdr:colOff>692727</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>42126</xdr:rowOff>
+      <xdr:rowOff>43255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6898,9 +6708,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9456694" y="4556148"/>
-          <a:ext cx="383045" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="8181709" y="4485477"/>
+          <a:ext cx="1674810" cy="1129"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6995,94 +6805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>120269</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>137350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91837</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>99374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F43129-049F-48B1-8C6C-3A7D22ADF310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3549269" y="6059415"/>
-          <a:ext cx="1296785" cy="666046"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>切符の区間を入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>差額の計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>365890</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>136892</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>246845</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>110048</xdr:rowOff>
+      <xdr:rowOff>128650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7097,8 +6829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5120107" y="6058957"/>
-          <a:ext cx="1338695" cy="677178"/>
+          <a:off x="5125916" y="5967351"/>
+          <a:ext cx="1345578" cy="682831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7153,150 +6885,23 @@
             </a:rPr>
             <a:t>支払い画面</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91837</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47742</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365890</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>52850</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B885F-7733-479A-9E6B-27F2D705AD4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="43" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4846054" y="6392220"/>
-          <a:ext cx="274053" cy="5108"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>88691</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>132863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561997</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>106019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ADC7C1-F69D-4645-96E8-E5F068F8F388}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6772756" y="6054928"/>
-          <a:ext cx="904002" cy="677178"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>切符の区間を</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -7307,9 +6912,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>現金投入</a:t>
+            <a:t>入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>差額を計算</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -7322,74 +6951,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>246845</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>48821</xdr:rowOff>
+      <xdr:rowOff>63476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>88691</xdr:colOff>
+      <xdr:colOff>264152</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>52850</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0364A4-E2F5-4F23-9255-C1656A08EF66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="43" idx="3"/>
-          <a:endCxn id="45" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6458802" y="6393299"/>
-          <a:ext cx="313954" cy="4029"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561997</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>46487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16749</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49899</xdr:rowOff>
+      <xdr:rowOff>64325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7401,14 +6969,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="3"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="43" idx="3"/>
           <a:endCxn id="48" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7676758" y="6390965"/>
-          <a:ext cx="506643" cy="3412"/>
+        <a:xfrm flipV="1">
+          <a:off x="6471494" y="6307918"/>
+          <a:ext cx="492320" cy="849"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7442,16 +7011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16749</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>136275</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264152</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>273991</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36484</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>109432</xdr:rowOff>
+      <xdr:rowOff>119328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7466,8 +7035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8183401" y="6058340"/>
-          <a:ext cx="1242873" cy="677179"/>
+          <a:off x="6963814" y="5974976"/>
+          <a:ext cx="1246852" cy="665884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7544,16 +7113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>273991</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36484</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>49899</xdr:rowOff>
+      <xdr:rowOff>62348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>704021</xdr:colOff>
+      <xdr:colOff>712520</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>52452</xdr:rowOff>
+      <xdr:rowOff>63476</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7570,8 +7139,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9426274" y="6394377"/>
-          <a:ext cx="430030" cy="2553"/>
+          <a:off x="8210666" y="6306790"/>
+          <a:ext cx="1665646" cy="1128"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7828,213 +7397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>105189</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>46846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>578495</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718C6946-7C4B-4AAA-A580-E9B75027E8CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6789254" y="5124085"/>
-          <a:ext cx="904002" cy="672072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>現金投入</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>残高支払い</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>263343</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>101274</xdr:rowOff>
+      <xdr:rowOff>103557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>105189</xdr:colOff>
+      <xdr:colOff>260858</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>105303</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EA6501-1894-4442-8DE3-CCC45AAC80C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="53" idx="3"/>
-          <a:endCxn id="55" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6475300" y="5460122"/>
-          <a:ext cx="313954" cy="4029"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>578495</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33247</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104686</xdr:rowOff>
+      <xdr:rowOff>104173</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8046,14 +7418,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="3"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="53" idx="3"/>
           <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7693256" y="5460122"/>
-          <a:ext cx="506643" cy="3412"/>
+        <a:xfrm flipV="1">
+          <a:off x="6487992" y="5378180"/>
+          <a:ext cx="472528" cy="616"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8087,14 +7460,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33247</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260858</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>50258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>290489</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33190</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>18309</xdr:rowOff>
     </xdr:to>
@@ -8111,8 +7484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199899" y="5127497"/>
-          <a:ext cx="1242873" cy="672073"/>
+          <a:off x="6960520" y="5047790"/>
+          <a:ext cx="1246852" cy="660779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8189,14 +7562,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>290489</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33190</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>104686</xdr:rowOff>
+      <xdr:rowOff>103557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>704021</xdr:colOff>
+      <xdr:colOff>692727</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104686</xdr:rowOff>
     </xdr:to>
@@ -8215,8 +7588,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9442772" y="5463534"/>
-          <a:ext cx="413532" cy="0"/>
+          <a:off x="8207372" y="5378180"/>
+          <a:ext cx="1649147" cy="1129"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8502,15 +7875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>480391</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:colOff>475013</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>120269</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365890</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>47960</xdr:rowOff>
+      <xdr:rowOff>64325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8522,16 +7895,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="37" idx="1"/>
+          <a:cxnSpLocks/>
+          <a:endCxn id="43" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2641035" y="5484204"/>
-          <a:ext cx="1571960" cy="244508"/>
+        <a:xfrm>
+          <a:off x="3295403" y="5007429"/>
+          <a:ext cx="1830513" cy="1301338"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 263"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -12100,7 +11476,7 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
@@ -12125,45 +11501,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -12181,22 +11557,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -12208,18 +11584,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -13412,16 +12788,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.47244094488188981" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -13438,8 +12814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13463,45 +12839,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -13519,22 +12895,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -13546,18 +12922,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -14801,45 +14177,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -14857,22 +14233,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -14884,18 +14260,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB63CA-1240-4E34-A29B-83759C9C9624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C86EA-E570-47BC-8A54-74F34C62F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="0" windowWidth="15708" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="156" windowWidth="15708" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -895,6 +895,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,46 +978,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1407,8 +1407,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1569311</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>8985</xdr:rowOff>
     </xdr:from>
@@ -1431,8 +1431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1829287" y="1255079"/>
-          <a:ext cx="1191819" cy="646740"/>
+          <a:off x="1986064" y="1289794"/>
+          <a:ext cx="1040288" cy="660092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1477,6 +1477,16 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>切符購入</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>在来線</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -1487,16 +1497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>86199</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45378</xdr:rowOff>
+      <xdr:colOff>222702</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1511,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847216" y="2139117"/>
-          <a:ext cx="1164925" cy="631532"/>
+          <a:off x="1986064" y="3587921"/>
+          <a:ext cx="1065766" cy="669243"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,7 +1559,19 @@
             <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>出発駅から到着駅選択</a:t>
+            <a:t>出発駅から</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>到着駅選択</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP">
             <a:effectLst/>
@@ -1573,16 +1595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22699</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131557</xdr:rowOff>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1597,8 +1619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847216" y="3016911"/>
-          <a:ext cx="1164925" cy="646740"/>
+          <a:off x="1977957" y="4388319"/>
+          <a:ext cx="1108907" cy="664034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,16 +1675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479299</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37121</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122592</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15021</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1677,8 +1699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303181" y="3007946"/>
-          <a:ext cx="1430184" cy="646740"/>
+          <a:off x="4792897" y="4397957"/>
+          <a:ext cx="1430183" cy="671350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,16 +1777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267827</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>368040</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122592</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488601</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44589</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1779,8 +1801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019121" y="3007946"/>
-          <a:ext cx="1086331" cy="646740"/>
+          <a:off x="6507383" y="4402439"/>
+          <a:ext cx="1085747" cy="671350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,16 +1873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241252</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>836826</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>570065</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122592</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25716</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>49072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1875,8 +1897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6453793" y="3007946"/>
-          <a:ext cx="1234248" cy="646740"/>
+          <a:off x="7941355" y="4406922"/>
+          <a:ext cx="1232843" cy="671350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1988,15 +2010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>479299</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95057</xdr:rowOff>
+      <xdr:colOff>400472</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>54236</xdr:rowOff>
+      <xdr:colOff>387337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2011,8 +2033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303181" y="2147975"/>
-          <a:ext cx="1439148" cy="631532"/>
+          <a:off x="3229506" y="3642298"/>
+          <a:ext cx="1440797" cy="659869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2078,15 +2100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>267828</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95058</xdr:rowOff>
+      <xdr:colOff>189001</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>368041</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>54237</xdr:rowOff>
+      <xdr:colOff>289214</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2101,8 +2123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019122" y="2147976"/>
-          <a:ext cx="1086331" cy="631532"/>
+          <a:off x="4944932" y="3642299"/>
+          <a:ext cx="1081179" cy="659869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,16 +2247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479298</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138831</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17949</xdr:rowOff>
+      <xdr:rowOff>9842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>126807</xdr:rowOff>
+      <xdr:rowOff>118700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2249,8 +2271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3303180" y="1264043"/>
-          <a:ext cx="1430185" cy="646740"/>
+          <a:off x="3908299" y="1290651"/>
+          <a:ext cx="1428944" cy="660092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2315,16 +2337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>258863</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145374</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17950</xdr:rowOff>
+      <xdr:rowOff>17951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>359076</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>126808</xdr:rowOff>
+      <xdr:rowOff>126809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2339,8 +2361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5010157" y="1264044"/>
-          <a:ext cx="1086331" cy="646740"/>
+          <a:off x="5876587" y="1298760"/>
+          <a:ext cx="1081086" cy="660092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2469,8 +2491,8 @@
       <xdr:rowOff>63414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1569311</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>63414</xdr:rowOff>
     </xdr:to>
@@ -2490,8 +2512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1434680" y="1578449"/>
-          <a:ext cx="394607" cy="0"/>
+          <a:off x="1434108" y="1619840"/>
+          <a:ext cx="551956" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2529,10 +2551,10 @@
       <xdr:rowOff>63414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479298</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138831</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72378</xdr:rowOff>
+      <xdr:rowOff>64271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2551,306 +2573,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3021106" y="1578449"/>
-          <a:ext cx="282074" cy="8964"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1380892</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>72378</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133024</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1310307" y="1917974"/>
-          <a:ext cx="867470" cy="206348"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1371926</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>54448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77128</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="854160" y="2347225"/>
-          <a:ext cx="1770798" cy="215314"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475593</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>117660</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="カギ線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="56" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2794562" y="3809437"/>
-          <a:ext cx="873612" cy="149023"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479299</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3012141" y="2454883"/>
-          <a:ext cx="291040" cy="8858"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479299</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77128</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3012141" y="3331316"/>
-          <a:ext cx="291040" cy="8965"/>
+          <a:off x="3026352" y="1619840"/>
+          <a:ext cx="881947" cy="857"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2883,34 +2607,92 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68163</xdr:rowOff>
+      <xdr:colOff>345144</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>267827</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68163</xdr:rowOff>
+      <xdr:colOff>16454</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+        <xdr:cNvPr id="36" name="カギ線コネクタ 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
+          <a:cxnSpLocks/>
+          <a:endCxn id="56" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4733365" y="3331316"/>
-          <a:ext cx="285756" cy="0"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4292301" y="5080304"/>
+          <a:ext cx="817902" cy="141957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171215</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3002972" y="3843688"/>
+          <a:ext cx="291040" cy="1954"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2943,15 +2725,135 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>72378</xdr:rowOff>
+      <xdr:colOff>175054</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>258863</xdr:colOff>
+      <xdr:colOff>37121</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4460183" y="4733632"/>
+          <a:ext cx="332714" cy="3723"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15021</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299324</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6223080" y="4733632"/>
+          <a:ext cx="284303" cy="4482"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72379</xdr:rowOff>
+      <xdr:rowOff>64271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145374</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72380</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2969,8 +2871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4739514" y="1615271"/>
-          <a:ext cx="273977" cy="1"/>
+          <a:off x="5337243" y="1620697"/>
+          <a:ext cx="539344" cy="8109"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3005,15 +2907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5374</xdr:rowOff>
+      <xdr:colOff>387337</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>267828</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5375</xdr:rowOff>
+      <xdr:colOff>189001</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30855</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3031,8 +2933,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4748478" y="2518085"/>
-          <a:ext cx="273978" cy="1"/>
+          <a:off x="4670303" y="3972233"/>
+          <a:ext cx="274629" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3066,16 +2968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>368040</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68164</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241252</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68164</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>836826</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3093,8 +2995,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6105081" y="3412147"/>
-          <a:ext cx="345526" cy="0"/>
+          <a:off x="7593130" y="4738114"/>
+          <a:ext cx="348225" cy="4483"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3131,11 +3033,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>598721</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72379</xdr:rowOff>
+      <xdr:rowOff>72380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>359076</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286120</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>108878</xdr:rowOff>
     </xdr:to>
@@ -3155,13 +3057,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="856919" y="1615272"/>
-          <a:ext cx="5239198" cy="313589"/>
+          <a:off x="858125" y="1628806"/>
+          <a:ext cx="6099548" cy="312115"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -71480"/>
-            <a:gd name="adj2" fmla="val 1628620"/>
+            <a:gd name="adj1" fmla="val -46887"/>
+            <a:gd name="adj2" fmla="val 1716472"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -3194,15 +3096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>368041</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>289214</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>679374</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5793</xdr:rowOff>
+      <xdr:colOff>674914</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3218,9 +3120,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6096812" y="2515518"/>
-          <a:ext cx="3717381" cy="5793"/>
+        <a:xfrm>
+          <a:off x="6022357" y="3914552"/>
+          <a:ext cx="3803814" cy="4305"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3254,16 +3156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>570065</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68163</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25716</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>688554</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82627</xdr:rowOff>
+      <xdr:colOff>703730</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3280,8 +3182,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7657583" y="3409946"/>
-          <a:ext cx="2165790" cy="14464"/>
+          <a:off x="9174198" y="4742597"/>
+          <a:ext cx="678014" cy="4215"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3315,16 +3217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475594</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>62956</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16455</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>453495</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>33267</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>465003</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3339,8 +3241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305880" y="3987861"/>
-          <a:ext cx="1435377" cy="665787"/>
+          <a:off x="4772231" y="5227695"/>
+          <a:ext cx="1430184" cy="665077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3417,16 +3319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297337</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>59178</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>985566</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>275238</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>29489</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13448</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3441,8 +3343,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5056813" y="3984083"/>
-          <a:ext cx="1429330" cy="665787"/>
+          <a:off x="8090095" y="5238296"/>
+          <a:ext cx="1071835" cy="665077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3519,16 +3421,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>453495</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>113882</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635197</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297337</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>117660</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>985566</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3540,14 +3442,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="3"/>
+          <a:stCxn id="55" idx="3"/>
           <a:endCxn id="61" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4741257" y="4316977"/>
-          <a:ext cx="315556" cy="3778"/>
+        <a:xfrm>
+          <a:off x="7739726" y="5569379"/>
+          <a:ext cx="350369" cy="1456"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3579,148 +3481,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1575121</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21728</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16214</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>185105</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>119451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="テキスト ボックス 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65D01DD-6097-4CC1-AC40-5258B0FC5025}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1838357" y="5605110"/>
-          <a:ext cx="1186930" cy="651905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>IC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カード発行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1366075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>124296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1575120</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>69754</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="カギ線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE5E246-9172-48CB-A6DA-85CF130EAFB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="81" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="375650" y="4467521"/>
-          <a:ext cx="2716367" cy="209045"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>481405</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>459306</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>130125</xdr:rowOff>
+      <xdr:colOff>405617</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3735,8 +3505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3321587" y="5604652"/>
-          <a:ext cx="1418774" cy="663037"/>
+          <a:off x="1994171" y="6211824"/>
+          <a:ext cx="1240574" cy="657760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3807,76 +3577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>185105</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>70590</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120809</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>481405</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>75698</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CA4FA5-EF01-4E03-82CF-707A551B1678}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="3"/>
-          <a:endCxn id="83" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3025287" y="5931063"/>
-          <a:ext cx="296300" cy="5108"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>303148</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>281049</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>132394</xdr:rowOff>
+      <xdr:colOff>227359</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>78704</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3891,8 +3601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5055257" y="5606921"/>
-          <a:ext cx="1432628" cy="663037"/>
+          <a:off x="3554188" y="6293573"/>
+          <a:ext cx="1429102" cy="669407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3969,16 +3679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>459306</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>74862</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405617</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>303148</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>77131</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120809</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3996,8 +3706,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740361" y="5935335"/>
-          <a:ext cx="314896" cy="2269"/>
+          <a:off x="3234745" y="6540704"/>
+          <a:ext cx="315064" cy="2269"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4029,16 +3739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>90387</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>17241</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505113</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>103689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>559993</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>126096</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417239</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>72406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4053,8 +3763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6768278" y="5600623"/>
-          <a:ext cx="899097" cy="663037"/>
+          <a:off x="5261044" y="6287275"/>
+          <a:ext cx="893092" cy="669407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4125,16 +3835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>281049</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>71669</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>227359</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>17979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>90387</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>77967</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505113</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>24277</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4152,8 +3862,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6487885" y="5932142"/>
-          <a:ext cx="280393" cy="6298"/>
+          <a:off x="4983290" y="6621979"/>
+          <a:ext cx="277754" cy="6298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4185,16 +3895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>559993</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>65736</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417239</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>918781</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>70431</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>301014</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4212,8 +3922,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7667375" y="5926209"/>
-          <a:ext cx="358788" cy="4695"/>
+          <a:off x="6154136" y="6616046"/>
+          <a:ext cx="356740" cy="4695"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4247,16 +3957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>918781</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12546</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>301014</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>98994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>107743</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>121402</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628027</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>67712</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4271,8 +3981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8026163" y="5595928"/>
-          <a:ext cx="1225580" cy="663038"/>
+          <a:off x="6510876" y="6282580"/>
+          <a:ext cx="1229151" cy="669408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4435,16 +4145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>107743</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>59311</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628027</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>709017</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>64499</xdr:rowOff>
+      <xdr:colOff>678623</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>13284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4461,8 +4171,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9251743" y="5919784"/>
-          <a:ext cx="601274" cy="5188"/>
+          <a:off x="7740027" y="6614809"/>
+          <a:ext cx="2100113" cy="2475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4496,16 +4206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>275238</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>109780</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13448</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>710339</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112139</xdr:rowOff>
+      <xdr:colOff>703730</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4521,9 +4231,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6481018" y="4229746"/>
-          <a:ext cx="3373321" cy="2359"/>
+        <a:xfrm>
+          <a:off x="9161930" y="5570835"/>
+          <a:ext cx="690282" cy="730"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4557,16 +4267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>136989</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102742</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165847</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>625011</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>17123</xdr:rowOff>
+      <xdr:colOff>691931</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>61310</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4581,19 +4291,184 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4888787" y="4238090"/>
-          <a:ext cx="4888786" cy="873303"/>
+          <a:off x="6373906" y="5558118"/>
+          <a:ext cx="3466507" cy="505063"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 263"/>
+            <a:gd name="adj1" fmla="val 3192"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556054</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175054</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>43033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF322117-67E6-4651-B0D7-9DE4EBB6D277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3387811" y="4289933"/>
+          <a:ext cx="1070919" cy="644316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メインメニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556054</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D02229-C343-4C32-8CAE-BEEB3FA8B39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3086864" y="4712654"/>
+          <a:ext cx="298318" cy="7682"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4605,6 +4480,765 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79898</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635197</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D071E919-2729-4A36-8D0D-DDC525536687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758604" y="5236840"/>
+          <a:ext cx="981122" cy="665077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>期間を選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>465003</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79898</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BC5C59-3EE3-40A2-8750-26B0C7A09F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202415" y="5560234"/>
+          <a:ext cx="556189" cy="9145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C0BAF8-B37D-41FD-B229-8C9845FEA8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1986064" y="2053879"/>
+          <a:ext cx="1059639" cy="657762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>到着駅選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>切符購入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>私鉄</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233454</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5537F328-C6CA-46AC-8742-A71835DE8C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1986064" y="2806944"/>
+          <a:ext cx="1076518" cy="653818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>到着駅選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>切符購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1434833</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="コネクタ: カギ線 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483C0CB1-E016-4FA2-A48D-74B4C68D36BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1455357" y="1852052"/>
+          <a:ext cx="769587" cy="291827"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1426725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8108</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="コネクタ: カギ線 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8909C4-62C7-4C07-8BB3-0FAF511FAD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1205457" y="2353245"/>
+          <a:ext cx="1261279" cy="299936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1418617</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8107</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="コネクタ: カギ線 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44251CB-1CC8-4E2B-B37D-C011FF419872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1313707" y="3250185"/>
+          <a:ext cx="1036671" cy="308043"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1418618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132122</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="コネクタ: カギ線 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CD58B2-A0D2-4989-951D-ED41F0DD7997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="910757" y="3653135"/>
+          <a:ext cx="1834465" cy="299936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1418617</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16213</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23172</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="コネクタ: カギ線 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32356D4-A471-4432-A7C6-E9CF18F16BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8679" y="4555212"/>
+          <a:ext cx="3654834" cy="316149"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58057</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="コネクタ: カギ線 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D612816F-2CBE-43DB-91B2-A8F06666C71B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="76" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2895309" y="1769896"/>
+          <a:ext cx="746930" cy="443825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233454</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>94347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="コネクタ: カギ線 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6628954-F8CD-4504-94A4-082DB61A7890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2538876" y="2157725"/>
+          <a:ext cx="1483932" cy="434203"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -11476,8 +12110,8 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -11501,45 +12135,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -11557,22 +12191,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -11584,18 +12218,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -12788,16 +13422,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.47244094488188981" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -12814,7 +13448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
@@ -12839,45 +13473,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -12895,22 +13529,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -12922,18 +13556,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -14177,45 +14811,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -14233,22 +14867,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -14260,18 +14894,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C86EA-E570-47BC-8A54-74F34C62F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C15AE5-E27E-4ECC-9277-19DA807804FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="156" windowWidth="15708" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6852" yWindow="0" windowWidth="15708" windowHeight="12240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:effectLst/>
             </a:rPr>
-            <a:t>在来線</a:t>
+            <a:t>（在来線）</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1862,6 +1862,46 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>現金投入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（チャージ）</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -2065,6 +2105,34 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
@@ -2303,6 +2371,34 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>切符購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
@@ -3673,6 +3769,70 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カード発行）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3824,6 +3984,70 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>現金投入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カード発行）</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -4424,6 +4648,110 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4751,7 +5079,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>233454</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>112826</xdr:rowOff>
+      <xdr:rowOff>113862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4766,8 +5094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1986064" y="2806944"/>
-          <a:ext cx="1076518" cy="653818"/>
+          <a:off x="1987555" y="2830518"/>
+          <a:ext cx="1074933" cy="664172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4811,6 +5139,16 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>切符購入</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新幹線</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -4884,15 +5222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1426725</xdr:colOff>
+      <xdr:colOff>1426724</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>40530</xdr:rowOff>
+      <xdr:rowOff>40528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8108</xdr:colOff>
+      <xdr:colOff>8106</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>61533</xdr:rowOff>
+      <xdr:rowOff>62052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4909,8 +5247,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1205457" y="2353245"/>
-          <a:ext cx="1261279" cy="299936"/>
+          <a:off x="1197136" y="2372185"/>
+          <a:ext cx="1282766" cy="298071"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5195,9 +5533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65314</xdr:colOff>
+      <xdr:colOff>65316</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>61536</xdr:rowOff>
+      <xdr:rowOff>62053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5214,8 +5552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2538876" y="2157725"/>
-          <a:ext cx="1483932" cy="434203"/>
+          <a:off x="2525980" y="2189889"/>
+          <a:ext cx="1509224" cy="436207"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5659,6 +5997,34 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -5897,6 +6263,34 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>切符購入</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP">
             <a:effectLst/>
@@ -6763,16 +7157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273018</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167914</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>10539</xdr:rowOff>
+      <xdr:rowOff>36815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>250919</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>118659</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>697608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6787,8 +7181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5023358" y="3082858"/>
-          <a:ext cx="1428944" cy="659354"/>
+          <a:off x="6377776" y="3137367"/>
+          <a:ext cx="1431832" cy="668671"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6865,16 +7259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>429176</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289034</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>64599</xdr:rowOff>
+      <xdr:rowOff>85620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273018</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167914</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>68377</xdr:rowOff>
+      <xdr:rowOff>90875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6886,14 +7280,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="3"/>
+          <a:stCxn id="46" idx="3"/>
           <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4709346" y="3412535"/>
-          <a:ext cx="314012" cy="3778"/>
+        <a:xfrm>
+          <a:off x="6025931" y="3466448"/>
+          <a:ext cx="351845" cy="5255"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7082,6 +7476,40 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カード</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -7378,16 +7806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>250919</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>697608</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>52192</xdr:rowOff>
+      <xdr:rowOff>78468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>699370</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>454128</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>64599</xdr:rowOff>
+      <xdr:rowOff>90875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7404,8 +7832,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6451303" y="3340274"/>
-          <a:ext cx="3392067" cy="12407"/>
+          <a:off x="7809608" y="3459296"/>
+          <a:ext cx="3400106" cy="12407"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7876,6 +8304,14 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（精算）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -7961,6 +8397,46 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カード</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -8567,6 +9043,168 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297793</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289034</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1DE715-0C73-49C0-832D-C980169AD23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5053724" y="3132112"/>
+          <a:ext cx="972207" cy="668671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>期間選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>429176</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297793</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B66083-303D-4CEA-BAF9-444435FD8120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4712142" y="3449205"/>
+          <a:ext cx="341582" cy="17243"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8847,71 +9485,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>779933</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>108878</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B2C60-0B16-4C40-BD71-F09F7370B9F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1039909" y="1578448"/>
-          <a:ext cx="2698373" cy="314406"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -8472"/>
-            <a:gd name="adj2" fmla="val 249694"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -12110,8 +12683,8 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="C12" zoomScale="87" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13448,8 +14021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView topLeftCell="C8" zoomScale="87" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -14786,8 +15359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E6446-CD8B-4EF1-B967-4AC6B9BBF3E5}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="117" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B19" activeCellId="1" sqref="D25 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C15AE5-E27E-4ECC-9277-19DA807804FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363CA15-E4AA-41FB-B6E6-2179C4A6690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6852" yWindow="0" windowWidth="15708" windowHeight="12240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="36" windowWidth="14988" windowHeight="12240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">駅員PC!$A$1:$Q$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">改札機能!$A$1:$Q$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">券売機PC!$A$1:$Q$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">券売機PC!$A$1:$Q$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">駅員PC!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">改札機能!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">券売機PC!$1:$5</definedName>
@@ -1497,16 +1497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8107</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>102176</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>551032</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>222702</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>82377</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175077</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1521,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1986064" y="3587921"/>
-          <a:ext cx="1065766" cy="669243"/>
+          <a:off x="3379957" y="4397951"/>
+          <a:ext cx="1071845" cy="646951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,7 +1559,7 @@
             <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>出発駅から</a:t>
+            <a:t>変更または確認</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP">
             <a:effectLst/>
@@ -1571,19 +1571,7 @@
             <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>到着駅選択</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>定期券購入</a:t>
+            <a:t>継続</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1595,16 +1583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>75723</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>50715</xdr:rowOff>
+      <xdr:colOff>238686</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1619,8 +1607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1977957" y="4388319"/>
-          <a:ext cx="1108907" cy="664034"/>
+          <a:off x="1952625" y="5247798"/>
+          <a:ext cx="1114986" cy="641742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,15 +1664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>37121</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>63522</xdr:rowOff>
+      <xdr:colOff>18071</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15021</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>40107</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472221</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1699,8 +1687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4792897" y="4397957"/>
-          <a:ext cx="1430183" cy="671350"/>
+          <a:off x="4771046" y="5235597"/>
+          <a:ext cx="1444750" cy="643335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1778,15 +1766,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>299324</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68004</xdr:rowOff>
+      <xdr:colOff>280274</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>488601</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>44589</xdr:rowOff>
+      <xdr:colOff>469551</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1801,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6507383" y="4402439"/>
-          <a:ext cx="1085747" cy="671350"/>
+          <a:off x="6500099" y="5240079"/>
+          <a:ext cx="1094152" cy="643335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1914,15 +1902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>836826</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>72487</xdr:rowOff>
+      <xdr:colOff>817776</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>25716</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>49072</xdr:rowOff>
+      <xdr:colOff>6666</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>96697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1937,8 +1925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7941355" y="4406922"/>
-          <a:ext cx="1232843" cy="671350"/>
+          <a:off x="7942476" y="5244562"/>
+          <a:ext cx="1227240" cy="643335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2049,16 +2037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400472</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121332</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352847</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>387337</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80512</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320662</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2073,8 +2061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3229506" y="3642298"/>
-          <a:ext cx="1440797" cy="659869"/>
+          <a:off x="4629572" y="4417107"/>
+          <a:ext cx="1434665" cy="625930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2167,16 +2155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>189001</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121333</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122326</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289214</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80513</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>308264</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2191,8 +2179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4944932" y="3642299"/>
-          <a:ext cx="1081179" cy="659869"/>
+          <a:off x="6342151" y="4417108"/>
+          <a:ext cx="1090813" cy="625930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2703,15 +2691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345144</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>129991</xdr:rowOff>
+      <xdr:colOff>326094</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16454</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114175</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473654</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2729,8 +2717,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4292301" y="5080304"/>
-          <a:ext cx="817902" cy="141957"/>
+          <a:off x="4284457" y="5887128"/>
+          <a:ext cx="784284" cy="147560"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2761,16 +2749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171215</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23391</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123590</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>128166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>462255</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25345</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2787,7 +2775,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3002972" y="3843688"/>
+          <a:off x="4400315" y="4719216"/>
           <a:ext cx="291040" cy="1954"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2821,15 +2809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175054</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>121291</xdr:rowOff>
+      <xdr:colOff>156004</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>37121</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125014</xdr:rowOff>
+      <xdr:colOff>18071</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2847,8 +2835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4460183" y="4733632"/>
-          <a:ext cx="332714" cy="3723"/>
+          <a:off x="4432729" y="5560066"/>
+          <a:ext cx="338317" cy="3723"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2880,16 +2868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15021</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>121291</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472221</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>299324</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125773</xdr:rowOff>
+      <xdr:colOff>280274</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2907,7 +2895,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6223080" y="4733632"/>
+          <a:off x="6215796" y="5560066"/>
           <a:ext cx="284303" cy="4482"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3002,16 +2990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>387337</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30854</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320662</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>189001</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30855</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122326</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2280</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3029,8 +3017,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4670303" y="3972233"/>
-          <a:ext cx="274629" cy="1"/>
+          <a:off x="6064237" y="4726679"/>
+          <a:ext cx="277914" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3065,15 +3053,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>488601</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125773</xdr:rowOff>
+      <xdr:colOff>469551</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>836826</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130256</xdr:rowOff>
+      <xdr:colOff>817776</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3091,7 +3079,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7593130" y="4738114"/>
+          <a:off x="7594251" y="5564548"/>
           <a:ext cx="348225" cy="4483"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3153,13 +3141,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="858125" y="1628806"/>
-          <a:ext cx="6099548" cy="312115"/>
+          <a:off x="855896" y="1596380"/>
+          <a:ext cx="6126299" cy="303198"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -46887"/>
-            <a:gd name="adj2" fmla="val 1716472"/>
+            <a:gd name="adj1" fmla="val -46954"/>
+            <a:gd name="adj2" fmla="val 2050509"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -3191,16 +3179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289214</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31981</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>308264</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>674914</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5673</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3216,9 +3204,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6022357" y="3914552"/>
-          <a:ext cx="3803814" cy="4305"/>
+        <a:xfrm flipV="1">
+          <a:off x="7432964" y="4727806"/>
+          <a:ext cx="2444461" cy="2267"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3253,15 +3241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>25716</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130256</xdr:rowOff>
+      <xdr:colOff>6666</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>703730</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>684680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48746</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3278,7 +3266,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9174198" y="4742597"/>
+          <a:off x="9169716" y="5569031"/>
           <a:ext cx="678014" cy="4215"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3313,16 +3301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16455</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>59542</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473655</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>465003</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>29854</xdr:rowOff>
+      <xdr:colOff>445953</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>77479</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3337,8 +3325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772231" y="5227695"/>
-          <a:ext cx="1430184" cy="665077"/>
+          <a:off x="4750380" y="6031717"/>
+          <a:ext cx="1439148" cy="637062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3415,16 +3403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>985566</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>70143</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42591</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>117768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13448</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40455</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>680198</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3439,8 +3427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8090095" y="5238296"/>
-          <a:ext cx="1071835" cy="665077"/>
+          <a:off x="6738666" y="6042318"/>
+          <a:ext cx="1066232" cy="637062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3517,76 +3505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635197</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>985566</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>124776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580C9FBF-3290-4C78-B2CA-1A4F2A9E6F3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="3"/>
-          <a:endCxn id="61" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7739726" y="5569379"/>
-          <a:ext cx="350369" cy="1456"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16214</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>107718</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1711664</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>405617</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76435</xdr:rowOff>
+      <xdr:colOff>386567</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>105010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3601,8 +3529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1994171" y="6211824"/>
-          <a:ext cx="1240574" cy="657760"/>
+          <a:off x="1968839" y="6994293"/>
+          <a:ext cx="1246653" cy="635467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3674,15 +3602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>120809</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>109987</xdr:rowOff>
+      <xdr:colOff>101759</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>5212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>227359</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>78704</xdr:rowOff>
+      <xdr:colOff>208309</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3697,8 +3625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3554188" y="6293573"/>
-          <a:ext cx="1429102" cy="669407"/>
+          <a:off x="3530759" y="6996562"/>
+          <a:ext cx="1430525" cy="635467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3840,15 +3768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>405617</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>23172</xdr:rowOff>
+      <xdr:colOff>386567</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>51747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>120809</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>25441</xdr:rowOff>
+      <xdr:colOff>101759</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54016</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3866,8 +3794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3234745" y="6540704"/>
-          <a:ext cx="315064" cy="2269"/>
+          <a:off x="3215492" y="7309797"/>
+          <a:ext cx="315267" cy="2269"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3900,15 +3828,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>505113</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>103689</xdr:rowOff>
+      <xdr:colOff>486063</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>417239</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>72406</xdr:rowOff>
+      <xdr:colOff>398189</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100981</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3923,8 +3851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5261044" y="6287275"/>
-          <a:ext cx="893092" cy="669407"/>
+          <a:off x="5239038" y="6990264"/>
+          <a:ext cx="902726" cy="635467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4060,15 +3988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>227359</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>17979</xdr:rowOff>
+      <xdr:colOff>208309</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>46554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>505113</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24277</xdr:rowOff>
+      <xdr:colOff>486063</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4086,7 +4014,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4983290" y="6621979"/>
+          <a:off x="4961284" y="7304604"/>
           <a:ext cx="277754" cy="6298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4120,15 +4048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>417239</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12046</xdr:rowOff>
+      <xdr:colOff>398189</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>301014</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>16741</xdr:rowOff>
+      <xdr:colOff>281964</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>45316</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4146,8 +4074,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6154136" y="6616046"/>
-          <a:ext cx="356740" cy="4695"/>
+          <a:off x="6141764" y="7298671"/>
+          <a:ext cx="360025" cy="4695"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4182,15 +4110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>301014</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>98994</xdr:rowOff>
+      <xdr:colOff>281964</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>628027</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>67712</xdr:rowOff>
+      <xdr:colOff>608977</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>96287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4205,8 +4133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6510876" y="6282580"/>
-          <a:ext cx="1229151" cy="669408"/>
+          <a:off x="6501789" y="6985569"/>
+          <a:ext cx="1231888" cy="635468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4370,15 +4298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>628027</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>10809</xdr:rowOff>
+      <xdr:colOff>608977</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>39384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>678623</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>13284</xdr:rowOff>
+      <xdr:colOff>659573</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>41859</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4395,8 +4323,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7740027" y="6614809"/>
-          <a:ext cx="2100113" cy="2475"/>
+          <a:off x="7733677" y="7297434"/>
+          <a:ext cx="2088946" cy="2475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4430,16 +4358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13448</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>124776</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>680198</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>703730</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4456,8 +4384,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9161930" y="5570835"/>
-          <a:ext cx="690282" cy="730"/>
+          <a:off x="7804898" y="6360849"/>
+          <a:ext cx="2034427" cy="2802"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4492,15 +4420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165847</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>146797</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>691931</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>61310</xdr:rowOff>
+      <xdr:colOff>672881</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4515,8 +4443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6373906" y="5558118"/>
-          <a:ext cx="3466507" cy="505063"/>
+          <a:off x="6366622" y="6350934"/>
+          <a:ext cx="3469309" cy="482651"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4553,15 +4481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>556054</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68041</xdr:rowOff>
+      <xdr:colOff>537004</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175054</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>43033</xdr:rowOff>
+      <xdr:colOff>156004</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4576,8 +4504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3387811" y="4289933"/>
-          <a:ext cx="1070919" cy="644316"/>
+          <a:off x="3365929" y="5240116"/>
+          <a:ext cx="1066800" cy="641742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4700,47 +4628,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>カード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
+            <a:t>カード）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4759,15 +4647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>124441</xdr:rowOff>
+      <xdr:colOff>238686</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>556054</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>132123</xdr:rowOff>
+      <xdr:colOff>537004</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>46398</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4785,7 +4673,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3086864" y="4712654"/>
+          <a:off x="3067611" y="5563216"/>
           <a:ext cx="298318" cy="7682"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4818,118 +4706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>79898</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635197</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38999</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D071E919-2729-4A36-8D0D-DDC525536687}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6758604" y="5236840"/>
-          <a:ext cx="981122" cy="665077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>期間を選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>465003</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114175</xdr:rowOff>
+      <xdr:colOff>445953</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>79898</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123320</xdr:rowOff>
+      <xdr:colOff>42591</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4941,14 +4727,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="56" idx="3"/>
-          <a:endCxn id="55" idx="1"/>
+          <a:endCxn id="61" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6202415" y="5560234"/>
-          <a:ext cx="556189" cy="9145"/>
+          <a:off x="6189528" y="6350248"/>
+          <a:ext cx="549138" cy="10601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5283,15 +5070,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1418617</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89169</xdr:rowOff>
+      <xdr:colOff>1437669</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8107</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23372</xdr:rowOff>
+      <xdr:colOff>27159</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5302,14 +5089,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1313707" y="3250185"/>
-          <a:ext cx="1036671" cy="308043"/>
+          <a:off x="1346337" y="3333276"/>
+          <a:ext cx="1001003" cy="303990"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5344,15 +5129,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1418618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89168</xdr:rowOff>
+      <xdr:colOff>1437669</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>132122</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1695451</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5369,8 +5154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="910757" y="3653135"/>
-          <a:ext cx="1834465" cy="299936"/>
+          <a:off x="931835" y="4547878"/>
+          <a:ext cx="1783799" cy="257782"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5405,15 +5190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1418617</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89168</xdr:rowOff>
+      <xdr:colOff>1447192</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16213</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>23172</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1711664</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5430,8 +5215,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8679" y="4555212"/>
-          <a:ext cx="3654834" cy="316149"/>
+          <a:off x="77786" y="5420974"/>
+          <a:ext cx="3517634" cy="264472"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5577,6 +5362,760 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560557</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184602</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28961219-4D24-48C3-AA69-4FF962434288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3389482" y="3635951"/>
+          <a:ext cx="1071845" cy="646951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>出発駅から</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>到着駅選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362372</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330187</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DEA676-F975-4DDE-8D33-5A7C0CE81B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4639097" y="3655107"/>
+          <a:ext cx="1434665" cy="625930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131851</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317789</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A8660F-AECF-4113-A16F-EB1FDFBC2031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6351676" y="3655108"/>
+          <a:ext cx="1090813" cy="625930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支払い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>定期券発行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133115</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>424155</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34870</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134FE2EF-350E-474A-9218-8C53C64011F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4409840" y="3957216"/>
+          <a:ext cx="291040" cy="1954"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330187</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131851</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD89953-6E7D-47FB-9B67-27F211038DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6073762" y="3964679"/>
+          <a:ext cx="277914" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317789</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579F2B85-9C4B-40C2-8F69-ED83FBDCFD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442489" y="3968073"/>
+          <a:ext cx="2415886" cy="3852"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0008B07-8F50-4BB2-85CA-E257BD019AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="3629025"/>
+          <a:ext cx="1071845" cy="646951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規または継続選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>551032</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="カギ線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71543B4F-7743-44BE-B266-EA68752145BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053045" y="3952501"/>
+          <a:ext cx="326912" cy="768926"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560557</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44213129-E623-4723-BACA-B68C8C769211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053045" y="3952501"/>
+          <a:ext cx="336437" cy="6926"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7280,7 +7819,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -7809,11 +8348,11 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>697608</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>78468</xdr:rowOff>
+      <xdr:rowOff>78827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>454128</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>639380</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>90875</xdr:rowOff>
     </xdr:to>
@@ -7832,8 +8371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7809608" y="3459296"/>
-          <a:ext cx="3400106" cy="12407"/>
+          <a:off x="7809608" y="3459655"/>
+          <a:ext cx="1991289" cy="12048"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9024,168 +9563,6 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297793</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>31560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289034</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1DE715-0C73-49C0-832D-C980169AD23A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5053724" y="3132112"/>
-          <a:ext cx="972207" cy="668671"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>期間選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>429176</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68377</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297793</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B66083-303D-4CEA-BAF9-444435FD8120}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="3"/>
-          <a:endCxn id="46" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4712142" y="3449205"/>
-          <a:ext cx="341582" cy="17243"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -12683,8 +13060,8 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="87" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13668,24 +14045,8 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="2"/>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q50" s="13"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D51" s="6"/>
@@ -13695,6 +14056,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D52" s="6"/>
@@ -13704,6 +14066,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
+      <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D53" s="6"/>
@@ -13713,6 +14076,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D54" s="6"/>
@@ -13722,24 +14086,13 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
+      <c r="Q54" s="13"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="Q55" s="13"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="Q56" s="13"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D57" s="6"/>
@@ -13749,15 +14102,26 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D59" s="6"/>
@@ -14021,8 +14385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="87" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A8" zoomScale="87" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -15359,7 +15723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E6446-CD8B-4EF1-B967-4AC6B9BBF3E5}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="117" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="117" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B19" activeCellId="1" sqref="D25 B19"/>
     </sheetView>
   </sheetViews>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363CA15-E4AA-41FB-B6E6-2179C4A6690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE07BE-F9AF-41AE-978A-5128703BB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="36" windowWidth="14988" windowHeight="12240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15384" yWindow="96" windowWidth="7752" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="改札機能" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">駅員PC!$A$1:$Q$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">駅員PC!$A$1:$Q$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">改札機能!$A$1:$Q$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">券売機PC!$A$1:$Q$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">駅員PC!$1:$5</definedName>
@@ -895,44 +895,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,8 +940,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1497,16 +1497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>551032</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62570</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>73601</xdr:rowOff>
+      <xdr:rowOff>102908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175077</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293076</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>53802</xdr:rowOff>
+      <xdr:rowOff>83109</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1521,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3379957" y="4397951"/>
-          <a:ext cx="1071845" cy="646951"/>
+          <a:off x="4820185" y="4528370"/>
+          <a:ext cx="1207429" cy="664047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2037,16 +2037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352847</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128155</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92757</xdr:rowOff>
+      <xdr:rowOff>112295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>320662</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643047</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>51937</xdr:rowOff>
+      <xdr:rowOff>71475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2061,8 +2061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629572" y="4417107"/>
-          <a:ext cx="1434665" cy="625930"/>
+          <a:off x="6331617" y="4537757"/>
+          <a:ext cx="1413661" cy="643026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2115,7 +2115,7 @@
             <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>定期券購入</a:t>
+            <a:t>定期券更新</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP">
             <a:effectLst/>
@@ -2155,16 +2155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>122326</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>952711</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92758</xdr:rowOff>
+      <xdr:rowOff>92757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>308264</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552495</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>51938</xdr:rowOff>
+      <xdr:rowOff>51937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2179,8 +2179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6342151" y="4417108"/>
-          <a:ext cx="1090813" cy="625930"/>
+          <a:off x="8054942" y="4518219"/>
+          <a:ext cx="1084707" cy="643026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,16 +2749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123590</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>128166</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293076</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>414630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>130120</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128155</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2771,12 +2771,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4400315" y="4719216"/>
-          <a:ext cx="291040" cy="1954"/>
+          <a:off x="6027614" y="4859270"/>
+          <a:ext cx="304003" cy="1124"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2990,16 +2992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>320662</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643047</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>2279</xdr:rowOff>
+      <xdr:rowOff>3963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>122326</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>952711</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>2280</xdr:rowOff>
+      <xdr:rowOff>23501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3016,9 +3018,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6064237" y="4726679"/>
-          <a:ext cx="277914" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="7745278" y="4839732"/>
+          <a:ext cx="309664" cy="19538"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3179,16 +3181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>308264</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552495</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>3406</xdr:rowOff>
+      <xdr:rowOff>3963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>674077</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>5673</xdr:rowOff>
+      <xdr:rowOff>5672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3204,9 +3206,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7432964" y="4727806"/>
-          <a:ext cx="2444461" cy="2267"/>
+        <a:xfrm>
+          <a:off x="9139649" y="4839732"/>
+          <a:ext cx="678428" cy="1709"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3601,14 +3603,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101759</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>305674</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>5212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>208309</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283435</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>107279</xdr:rowOff>
     </xdr:to>
@@ -3625,8 +3627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3530759" y="6996562"/>
-          <a:ext cx="1430525" cy="635467"/>
+          <a:off x="5070857" y="7292508"/>
+          <a:ext cx="1437367" cy="660151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,13 +3772,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>386567</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>51747</xdr:rowOff>
+      <xdr:rowOff>53977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101759</xdr:colOff>
+      <xdr:colOff>103906</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>54016</xdr:rowOff>
+      <xdr:rowOff>79857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3789,13 +3791,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
-          <a:endCxn id="85" idx="1"/>
+          <a:endCxn id="74" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3215492" y="7309797"/>
-          <a:ext cx="315267" cy="2269"/>
+          <a:off x="3219919" y="7620315"/>
+          <a:ext cx="318353" cy="25880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3827,16 +3829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>486063</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>132264</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110429</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>14208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>398189</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580639</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100981</xdr:rowOff>
+      <xdr:rowOff>122446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3851,8 +3853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5239038" y="6990264"/>
-          <a:ext cx="902726" cy="635467"/>
+          <a:off x="6807443" y="7301504"/>
+          <a:ext cx="899506" cy="666322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3987,16 +3989,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>208309</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283435</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>46554</xdr:rowOff>
+      <xdr:rowOff>56246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>486063</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110429</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>52852</xdr:rowOff>
+      <xdr:rowOff>68327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4013,9 +4015,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4961284" y="7304604"/>
-          <a:ext cx="277754" cy="6298"/>
+        <a:xfrm>
+          <a:off x="6508224" y="7622584"/>
+          <a:ext cx="299219" cy="12081"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4047,16 +4049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>398189</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580639</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>40621</xdr:rowOff>
+      <xdr:rowOff>68327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>281964</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>893711</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>45316</xdr:rowOff>
+      <xdr:rowOff>74365</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4073,9 +4075,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6141764" y="7298671"/>
-          <a:ext cx="360025" cy="4695"/>
+        <a:xfrm>
+          <a:off x="7706949" y="7634665"/>
+          <a:ext cx="313072" cy="6038"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4109,16 +4111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>281964</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>127569</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>893711</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>20245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>608977</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83090</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>96287</xdr:rowOff>
+      <xdr:rowOff>128484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4133,8 +4135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6501789" y="6985569"/>
-          <a:ext cx="1231888" cy="635468"/>
+          <a:off x="8020021" y="7307541"/>
+          <a:ext cx="1228534" cy="666323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4297,16 +4299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>608977</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83090</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>39384</xdr:rowOff>
+      <xdr:rowOff>74056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>659573</xdr:colOff>
+      <xdr:colOff>697605</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>41859</xdr:rowOff>
+      <xdr:rowOff>74365</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4323,8 +4325,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7733677" y="7297434"/>
-          <a:ext cx="2088946" cy="2475"/>
+          <a:off x="9248555" y="7640394"/>
+          <a:ext cx="614515" cy="309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6007,13 +6009,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>224120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28201</xdr:rowOff>
+      <xdr:rowOff>26491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>551032</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>130377</xdr:rowOff>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8755</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6027,13 +6029,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="66" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
+          <a:endCxn id="69" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3053045" y="3952501"/>
-          <a:ext cx="326912" cy="768926"/>
+          <a:off x="3057197" y="4041645"/>
+          <a:ext cx="331504" cy="802879"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6124,6 +6126,309 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212553</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>64635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2912D36D-1573-44A5-BB3E-7422E8331CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3388701" y="4515105"/>
+          <a:ext cx="1112544" cy="658838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カードをタッチ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212553</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62570</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FA4860-FA11-4CC6-AF53-47C93822D3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4501245" y="4844524"/>
+          <a:ext cx="318940" cy="15870"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>103906</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450761</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>130890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A24C0B-D131-4DF4-BFD7-4EF69189D3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3538272" y="7316119"/>
+          <a:ext cx="1205447" cy="660151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名前、生年月日を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450761</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>305674</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>79857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4F1220-CBAF-4BE1-B34A-79AAB4461BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="1"/>
+          <a:endCxn id="74" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4743719" y="7622584"/>
+          <a:ext cx="327138" cy="23611"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6291,16 +6596,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>86199</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381895</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91277</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45378</xdr:rowOff>
+      <xdr:rowOff>121578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6315,8 +6620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1846320" y="2174079"/>
-          <a:ext cx="1168959" cy="644979"/>
+          <a:off x="3218228" y="2250586"/>
+          <a:ext cx="1165649" cy="639592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6367,6 +6672,18 @@
             </a:rPr>
             <a:t>定期券購入</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -6378,15 +6695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22699</xdr:rowOff>
+      <xdr:colOff>1575695</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131557</xdr:rowOff>
+      <xdr:colOff>176714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6401,8 +6718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1846320" y="3070699"/>
-          <a:ext cx="1168959" cy="657498"/>
+          <a:off x="1838162" y="3856559"/>
+          <a:ext cx="1174885" cy="647647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6457,16 +6774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479299</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95057</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9784</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3577</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>54236</xdr:rowOff>
+      <xdr:rowOff>121969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6481,8 +6798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3306319" y="2182937"/>
-          <a:ext cx="1442285" cy="644979"/>
+          <a:off x="4776517" y="2250977"/>
+          <a:ext cx="1450060" cy="639592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6575,16 +6892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267828</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95058</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>245507</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>368041</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428848</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>54237</xdr:rowOff>
+      <xdr:rowOff>121971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6599,8 +6916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5022708" y="2182938"/>
-          <a:ext cx="1083193" cy="644979"/>
+          <a:off x="6468507" y="2250979"/>
+          <a:ext cx="1080808" cy="639592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7111,15 +7428,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1380892</xdr:colOff>
+      <xdr:colOff>1197435</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72378</xdr:rowOff>
+      <xdr:rowOff>54449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133024</xdr:rowOff>
+      <xdr:colOff>1574799</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7132,16 +7449,19 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1301343" y="1950247"/>
-          <a:ext cx="883606" cy="206348"/>
+        <a:xfrm>
+          <a:off x="1459902" y="1603849"/>
+          <a:ext cx="377364" cy="936389"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -7170,15 +7490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1371926</xdr:colOff>
+      <xdr:colOff>1197435</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>54448</xdr:rowOff>
+      <xdr:rowOff>54449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1587240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77128</xdr:rowOff>
+      <xdr:colOff>1575695</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57116</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7191,16 +7511,19 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="3"/>
           <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="835783" y="2388911"/>
-          <a:ext cx="1805760" cy="215314"/>
+        <a:xfrm>
+          <a:off x="1459902" y="1603849"/>
+          <a:ext cx="378260" cy="2576534"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -7228,16 +7551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133024</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91277</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>72715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>479299</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9784</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>7412</xdr:rowOff>
+      <xdr:rowOff>73106</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7256,8 +7579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3015279" y="2495224"/>
-          <a:ext cx="291040" cy="11548"/>
+          <a:off x="4383877" y="2570382"/>
+          <a:ext cx="392640" cy="391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7290,15 +7613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68377</xdr:rowOff>
+      <xdr:colOff>176714</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>451275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77128</xdr:rowOff>
+      <xdr:colOff>439730</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57116</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7317,7 +7640,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3017387" y="3416313"/>
+          <a:off x="3013047" y="4171632"/>
           <a:ext cx="263016" cy="8751"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7412,16 +7735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3577</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>5374</xdr:rowOff>
+      <xdr:rowOff>73106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267828</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>245507</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>5375</xdr:rowOff>
+      <xdr:rowOff>73108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7439,8 +7762,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4748604" y="2504734"/>
-          <a:ext cx="274104" cy="1"/>
+          <a:off x="6226577" y="2570773"/>
+          <a:ext cx="241930" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7501,13 +7824,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="857801" y="1611619"/>
-          <a:ext cx="5239135" cy="310819"/>
+          <a:off x="861188" y="1621779"/>
+          <a:ext cx="5246755" cy="307432"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -71480"/>
-            <a:gd name="adj2" fmla="val 1679301"/>
+            <a:gd name="adj1" fmla="val -71414"/>
+            <a:gd name="adj2" fmla="val 1910455"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -7539,16 +7862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>368041</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428848</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>73108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>679374</xdr:colOff>
+      <xdr:colOff>719667</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>5793</xdr:rowOff>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7564,9 +7887,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6105901" y="2499360"/>
-          <a:ext cx="3725093" cy="5793"/>
+        <a:xfrm>
+          <a:off x="7549315" y="2570775"/>
+          <a:ext cx="2331285" cy="11558"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7601,15 +7924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>451275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14317</xdr:rowOff>
+      <xdr:colOff>439730</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429176</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122437</xdr:rowOff>
+      <xdr:colOff>417631</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7624,8 +7947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3280403" y="3086636"/>
-          <a:ext cx="1428943" cy="659354"/>
+          <a:off x="3276063" y="3848177"/>
+          <a:ext cx="1434168" cy="646909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7696,16 +8019,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167914</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>36815</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>278990</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>697608</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4797</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256891</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7720,8 +8043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6377776" y="3137367"/>
-          <a:ext cx="1431832" cy="668671"/>
+          <a:off x="5045723" y="3844399"/>
+          <a:ext cx="1434168" cy="646909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7798,16 +8121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289034</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85620</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417631</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167914</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>278990</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48365</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7820,13 +8143,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="27" idx="3"/>
           <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6025931" y="3466448"/>
-          <a:ext cx="351845" cy="5255"/>
+        <a:xfrm flipV="1">
+          <a:off x="4710231" y="4167854"/>
+          <a:ext cx="335492" cy="3778"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7859,15 +8183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133272</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>136109</xdr:rowOff>
+      <xdr:colOff>115061</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>455911</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>93028</xdr:rowOff>
+      <xdr:colOff>437700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7882,8 +8206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3564449" y="5034680"/>
-          <a:ext cx="1176079" cy="653605"/>
+          <a:off x="3552528" y="5689922"/>
+          <a:ext cx="1177772" cy="635371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7937,15 +8261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>299365</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129119</xdr:rowOff>
+      <xdr:colOff>281154</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>277265</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>97170</xdr:rowOff>
+      <xdr:colOff>259054</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37584</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7960,8 +8284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5053582" y="4220728"/>
-          <a:ext cx="1435640" cy="672072"/>
+          <a:off x="5047887" y="4870133"/>
+          <a:ext cx="1434167" cy="645384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8061,15 +8385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>455911</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>46344</xdr:rowOff>
+      <xdr:colOff>437700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>281948</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>51452</xdr:rowOff>
+      <xdr:colOff>263737</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>128450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8086,8 +8410,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740528" y="5362927"/>
-          <a:ext cx="300654" cy="5108"/>
+          <a:off x="4730300" y="6007675"/>
+          <a:ext cx="300170" cy="5108"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8120,35 +8444,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>277265</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43255</xdr:rowOff>
+      <xdr:colOff>256891</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>235195</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43872</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>671628</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43047</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDF7AE9-EBFA-4C74-A833-3E888223FD04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F483007-5787-4C66-A579-7465772F3017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="41" idx="1"/>
+          <a:stCxn id="28" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6501914" y="4486606"/>
-          <a:ext cx="432943" cy="617"/>
+          <a:off x="6479891" y="4149025"/>
+          <a:ext cx="3352670" cy="17289"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8182,240 +8504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>235195</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7527</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>96554</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB584674-0665-4178-B73F-9D009A50D197}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6934857" y="4156216"/>
-          <a:ext cx="1246852" cy="660780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>支払い完了</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7527</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43255</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F22EB3-9CEF-421B-A577-F10BD3250C89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8181709" y="4485477"/>
-          <a:ext cx="1674810" cy="1129"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>697608</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>639380</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F483007-5787-4C66-A579-7465772F3017}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7809608" y="3459655"/>
-          <a:ext cx="1991289" cy="12048"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>365890</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>347679</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>246845</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>128650</xdr:rowOff>
+      <xdr:colOff>228634</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8430,8 +8528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5125916" y="5967351"/>
-          <a:ext cx="1345578" cy="682831"/>
+          <a:off x="5114412" y="6638665"/>
+          <a:ext cx="1337222" cy="669398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8550,15 +8648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>246845</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63476</xdr:rowOff>
+      <xdr:colOff>228634</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264152</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>64325</xdr:rowOff>
+      <xdr:colOff>245941</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5297</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8577,8 +8675,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6471494" y="6307918"/>
-          <a:ext cx="492320" cy="849"/>
+          <a:off x="6451634" y="6972516"/>
+          <a:ext cx="491440" cy="848"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8613,15 +8711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264152</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7625</xdr:rowOff>
+      <xdr:colOff>245941</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>36484</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>119328</xdr:rowOff>
+      <xdr:colOff>18273</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8636,8 +8734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6963814" y="5974976"/>
-          <a:ext cx="1246852" cy="665884"/>
+          <a:off x="6943074" y="6646290"/>
+          <a:ext cx="1245532" cy="652451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8715,15 +8813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>36484</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>62348</xdr:rowOff>
+      <xdr:colOff>18273</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>712520</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63476</xdr:rowOff>
+      <xdr:colOff>694309</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5008</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8740,8 +8838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8210666" y="6306790"/>
-          <a:ext cx="1665646" cy="1128"/>
+          <a:off x="8188606" y="6971947"/>
+          <a:ext cx="1666636" cy="1128"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8776,15 +8874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>147652</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138420</xdr:rowOff>
+      <xdr:colOff>129441</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>97515</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459972</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8799,8 +8897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3578829" y="4200969"/>
-          <a:ext cx="1184455" cy="655780"/>
+          <a:off x="3566908" y="4879434"/>
+          <a:ext cx="1185664" cy="636428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8858,15 +8956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285443</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>50875</xdr:rowOff>
+      <xdr:colOff>267232</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>263343</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>18925</xdr:rowOff>
+      <xdr:colOff>245132</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8881,8 +8979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5039660" y="5128114"/>
-          <a:ext cx="1435640" cy="672072"/>
+          <a:off x="5033965" y="5741273"/>
+          <a:ext cx="1434167" cy="645384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8987,16 +9085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47944</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459972</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>296328</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>53052</xdr:rowOff>
+      <xdr:colOff>278117</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9013,7 +9111,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4763284" y="4528504"/>
+          <a:off x="4752572" y="5196476"/>
           <a:ext cx="292278" cy="5108"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9046,59 +9144,132 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>263343</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>103557</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1596196</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260858</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104173</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197215</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82298662-D2A5-4B7F-B76C-C5ECB9059073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1858663" y="4871388"/>
+          <a:ext cx="1174885" cy="645388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>精算方法の選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1197435</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1596196</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+        <xdr:cNvPr id="61" name="カギ線コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3135409-5A5C-4EEF-99B7-A1B51EF4E207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FAEED-FBF5-4EF1-B6C0-92E2F3784CB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="53" idx="3"/>
-          <a:endCxn id="58" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6487992" y="5378180"/>
-          <a:ext cx="472528" cy="616"/>
+        <a:xfrm>
+          <a:off x="1459902" y="1603849"/>
+          <a:ext cx="398761" cy="3590233"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -9109,23 +9280,327 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260858</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>50258</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197215</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33190</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129441</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>126115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD2EA19-054E-473E-9DA6-8114E9D27472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3033548" y="5194082"/>
+          <a:ext cx="533360" cy="3566"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462182</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>115062</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121898</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="コネクタ: カギ線 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DD8F82-CFBF-40E6-A2ED-4EAD8208F7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3298515" y="5181663"/>
+          <a:ext cx="254014" cy="824568"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>456802</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>18309</xdr:rowOff>
+      <xdr:rowOff>86895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347679</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56337896-19DB-42D7-B195-8485B702F610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3293135" y="5700295"/>
+          <a:ext cx="1821277" cy="1273629"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259054</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>245941</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6481D8F-69C5-4656-887B-27CD29E13598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6482054" y="5192825"/>
+          <a:ext cx="461020" cy="1779691"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>245132</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>245941</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7005ED05-B210-4D4C-9861-C675A393E4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6468132" y="6063965"/>
+          <a:ext cx="474942" cy="908551"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388133</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149752</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157A1C08-3B0A-448F-9CEE-28FD312CD2D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D80C539-8991-4E18-8859-F10CB006618C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9133,8 +9608,212 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6960520" y="5047790"/>
-          <a:ext cx="1246852" cy="660779"/>
+          <a:off x="4680733" y="3036594"/>
+          <a:ext cx="1217886" cy="677807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>変更または確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>継続</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457057</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8727FD8A-14A3-4D8F-AC24-1CE8B2D9FC2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205924" y="3045981"/>
+          <a:ext cx="1416413" cy="656786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>811534</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>122376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410722</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8C5344-CEC2-4A90-AADE-AD18F370D01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932001" y="3026443"/>
+          <a:ext cx="1080854" cy="656786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9193,7 +9872,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>支払い完了</a:t>
+            <a:t>支払い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>確認</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -9205,40 +9896,302 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>定期券発行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33190</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>103557</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1574799</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104686</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74119</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9936F3-F7F6-49F3-B9A6-43B954CFB829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1837266" y="2201334"/>
+          <a:ext cx="1073186" cy="677807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規または継続選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405623</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65891</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A53CF1B-C03F-44D3-9F0B-49920ECC0544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3241956" y="3023329"/>
+          <a:ext cx="1116535" cy="672598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カードをタッチ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74119</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381895</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>72715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FDA025-9898-4D3E-A21E-AE70F271DA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EB0F53-5D2A-484F-B529-AA11AD97852D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8207372" y="5378180"/>
-          <a:ext cx="1649147" cy="1129"/>
+          <a:off x="2910452" y="2540238"/>
+          <a:ext cx="307776" cy="30144"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501870</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>811534</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB64BA52-5437-4DDB-BC5F-D898FD4D24EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7622337" y="3354836"/>
+          <a:ext cx="309664" cy="19538"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9272,111 +10225,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1614407</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130374</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74119</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>215426</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>98429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82298662-D2A5-4B7F-B76C-C5ECB9059073}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1871168" y="4221983"/>
-          <a:ext cx="1168628" cy="672076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>精算方法の選択</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1383195</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1614406</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43999</xdr:rowOff>
+      <xdr:colOff>405623</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49161</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="カギ線コネクタ 33">
+        <xdr:cNvPr id="76" name="カギ線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FAEED-FBF5-4EF1-B6C0-92E2F3784CB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6A551-1465-48E5-8261-86FF45CE9A48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="67" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="350367" y="3037220"/>
-          <a:ext cx="2810390" cy="231211"/>
+        <a:xfrm>
+          <a:off x="2910452" y="2540238"/>
+          <a:ext cx="331504" cy="819390"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -9404,35 +10287,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215426</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44733</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65891</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>147652</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>48299</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388133</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD2EA19-054E-473E-9DA6-8114E9D27472}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAFD351-A2ED-4825-BDB8-C74C0169BFFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="3"/>
-          <a:endCxn id="51" idx="1"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3045712" y="4525293"/>
-          <a:ext cx="533117" cy="3566"/>
+          <a:off x="4358491" y="3359628"/>
+          <a:ext cx="322242" cy="15870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9441,8 +10325,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9464,44 +10348,46 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>480393</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149752</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133273</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457057</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="コネクタ: カギ線 65">
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DD8F82-CFBF-40E6-A2ED-4EAD8208F7B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB90A7B-8584-49A0-A84E-D96A48795737}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="1"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3310679" y="4513691"/>
-          <a:ext cx="253771" cy="847792"/>
+        <a:xfrm flipV="1">
+          <a:off x="5898619" y="3374374"/>
+          <a:ext cx="307305" cy="1124"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9523,57 +10409,57 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475013</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9897</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410722</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365890</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>64325</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56337896-19DB-42D7-B195-8485B702F610}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0099F02F-A690-463A-B208-370A38701941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="43" idx="1"/>
+          <a:stCxn id="64" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295403" y="5007429"/>
-          <a:ext cx="1830513" cy="1301338"/>
+          <a:off x="9012855" y="3354836"/>
+          <a:ext cx="842345" cy="6431"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 263"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -9673,43 +10559,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>設置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>選択</a:t>
+            <a:t>待機画面</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -13060,8 +13910,8 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A5" zoomScale="71" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13085,45 +13935,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -13141,22 +13991,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -13168,18 +14018,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -14359,16 +15209,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.47244094488188981" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -14385,8 +15235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="87" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="139" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -14410,45 +15260,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -14466,22 +15316,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -14493,18 +15343,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -15370,33 +16220,11 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="2"/>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q50" s="13"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="Q51" s="13"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D52" s="6"/>
@@ -15406,6 +16234,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
+      <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D53" s="6"/>
@@ -15415,6 +16244,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
+      <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D54" s="6"/>
@@ -15424,15 +16254,26 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D56" s="6"/>
@@ -15724,7 +16565,7 @@
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="117" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="1" sqref="D25 B19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -15748,45 +16589,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -15804,22 +16645,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -15831,18 +16672,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE07BE-F9AF-41AE-978A-5128703BB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256E4DA-F522-4B97-A8FC-C6D28CD38CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15384" yWindow="96" windowWidth="7752" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="1620" windowWidth="7752" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="改札機能" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">駅員PC!$A$1:$Q$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">駅員PC!$A$1:$Q$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">改札機能!$A$1:$Q$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">券売機PC!$A$1:$Q$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">駅員PC!$1:$5</definedName>
@@ -895,6 +895,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,46 +978,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -6597,15 +6597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381895</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23853</xdr:rowOff>
+      <xdr:colOff>396549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>91277</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>121578</xdr:rowOff>
+      <xdr:colOff>105931</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6620,8 +6620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3218228" y="2250586"/>
-          <a:ext cx="1165649" cy="639592"/>
+          <a:off x="3217414" y="2119352"/>
+          <a:ext cx="1167440" cy="654572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6695,15 +6695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1575695</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4226</xdr:rowOff>
+      <xdr:colOff>1571479</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>176714</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110006</xdr:rowOff>
+      <xdr:colOff>172498</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6718,8 +6718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838162" y="3856559"/>
-          <a:ext cx="1174885" cy="647647"/>
+          <a:off x="1832438" y="4464717"/>
+          <a:ext cx="1168855" cy="645062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6775,15 +6775,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9784</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24244</xdr:rowOff>
+      <xdr:colOff>24438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>3577</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>121969</xdr:rowOff>
+      <xdr:colOff>18231</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6798,8 +6798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4776517" y="2250977"/>
-          <a:ext cx="1450060" cy="639592"/>
+          <a:off x="4772284" y="2119743"/>
+          <a:ext cx="1444524" cy="654572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6892,16 +6892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>245507</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24246</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>792517</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428848</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>121971</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380871</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6916,8 +6916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6468507" y="2250979"/>
-          <a:ext cx="1080808" cy="639592"/>
+          <a:off x="7890599" y="2062837"/>
+          <a:ext cx="1081039" cy="640520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7434,9 +7434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1574799</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42571</xdr:rowOff>
+      <xdr:colOff>1589453</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33371</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7455,8 +7455,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1459902" y="1603849"/>
-          <a:ext cx="377364" cy="936389"/>
+          <a:off x="1453877" y="1600430"/>
+          <a:ext cx="392018" cy="814191"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7496,9 +7496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1575695</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57116</xdr:rowOff>
+      <xdr:colOff>1571479</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6481</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7517,8 +7517,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1459902" y="1603849"/>
-          <a:ext cx="378260" cy="2576534"/>
+          <a:off x="1458394" y="1578449"/>
+          <a:ext cx="374044" cy="3208799"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7552,15 +7552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>91277</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>72715</xdr:rowOff>
+      <xdr:colOff>105931</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9784</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>73106</xdr:rowOff>
+      <xdr:colOff>24438</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65779</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7579,8 +7579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4383877" y="2570382"/>
-          <a:ext cx="392640" cy="391"/>
+          <a:off x="4384854" y="2446638"/>
+          <a:ext cx="387430" cy="391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7613,15 +7613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>176714</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>48365</xdr:rowOff>
+      <xdr:colOff>172498</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>439730</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57116</xdr:rowOff>
+      <xdr:colOff>435514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6481</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7640,8 +7640,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3013047" y="4171632"/>
-          <a:ext cx="263016" cy="8751"/>
+          <a:off x="3001293" y="4776624"/>
+          <a:ext cx="263016" cy="10624"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7736,15 +7736,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>3577</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>73106</xdr:rowOff>
+      <xdr:colOff>18231</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>245507</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>73108</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>792517</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65779</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7761,9 +7761,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6226577" y="2570773"/>
-          <a:ext cx="241930" cy="2"/>
+        <a:xfrm flipV="1">
+          <a:off x="6218615" y="2383097"/>
+          <a:ext cx="1671984" cy="20874"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7830,7 +7830,7 @@
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val -71414"/>
-            <a:gd name="adj2" fmla="val 1910455"/>
+            <a:gd name="adj2" fmla="val 2054703"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -7862,16 +7862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428848</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>73108</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380871</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>719667</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>567307</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7888,8 +7888,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7549315" y="2570775"/>
-          <a:ext cx="2331285" cy="11558"/>
+          <a:off x="8971638" y="2383097"/>
+          <a:ext cx="2336737" cy="11558"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7924,15 +7924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>439730</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>131310</xdr:rowOff>
+      <xdr:colOff>435514</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>417631</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100886</xdr:rowOff>
+      <xdr:colOff>413415</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>48495</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7947,8 +7947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276063" y="3848177"/>
-          <a:ext cx="1434168" cy="646909"/>
+          <a:off x="3264309" y="4452589"/>
+          <a:ext cx="1428832" cy="648070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8020,15 +8020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>278990</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127532</xdr:rowOff>
+      <xdr:colOff>274774</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>256891</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>97108</xdr:rowOff>
+      <xdr:colOff>252675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8043,8 +8043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5045723" y="3844399"/>
-          <a:ext cx="1434168" cy="646909"/>
+          <a:off x="5024226" y="4448811"/>
+          <a:ext cx="1428833" cy="648070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8122,15 +8122,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>417631</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44587</xdr:rowOff>
+      <xdr:colOff>413415</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>278990</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>48365</xdr:rowOff>
+      <xdr:colOff>274774</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131556</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8149,8 +8149,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4710231" y="4167854"/>
-          <a:ext cx="335492" cy="3778"/>
+          <a:off x="4693141" y="4772846"/>
+          <a:ext cx="331085" cy="3778"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8183,15 +8183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>115061</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76522</xdr:rowOff>
+      <xdr:colOff>100407</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>437700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:colOff>423046</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8206,8 +8206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3552528" y="5689922"/>
-          <a:ext cx="1177772" cy="635371"/>
+          <a:off x="3522080" y="6282426"/>
+          <a:ext cx="1179889" cy="654096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8261,15 +8261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>281154</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>69533</xdr:rowOff>
+      <xdr:colOff>266500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>135476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>259054</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>37584</xdr:rowOff>
+      <xdr:colOff>244400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8284,8 +8284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5047887" y="4870133"/>
-          <a:ext cx="1434167" cy="645384"/>
+          <a:off x="5014346" y="5440168"/>
+          <a:ext cx="1428631" cy="664108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8385,15 +8385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>437700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123342</xdr:rowOff>
+      <xdr:colOff>423046</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>50073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>263737</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>128450</xdr:rowOff>
+      <xdr:colOff>249083</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>55181</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8410,8 +8410,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4730300" y="6007675"/>
-          <a:ext cx="300170" cy="5108"/>
+          <a:off x="4701969" y="6607669"/>
+          <a:ext cx="294960" cy="5108"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8444,15 +8444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>256891</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25758</xdr:rowOff>
+      <xdr:colOff>252675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>671628</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>43047</xdr:rowOff>
+      <xdr:colOff>667412</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8469,8 +8469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6479891" y="4149025"/>
-          <a:ext cx="3352670" cy="17289"/>
+          <a:off x="6453059" y="4757646"/>
+          <a:ext cx="3358353" cy="17289"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8505,15 +8505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>347679</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76998</xdr:rowOff>
+      <xdr:colOff>333025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228634</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>69063</xdr:rowOff>
+      <xdr:colOff>213980</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>135005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8528,8 +8528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114412" y="6638665"/>
-          <a:ext cx="1337222" cy="669398"/>
+          <a:off x="5080871" y="7257383"/>
+          <a:ext cx="1331686" cy="688122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8648,15 +8648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228634</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4449</xdr:rowOff>
+      <xdr:colOff>213980</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>70391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245941</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>5297</xdr:rowOff>
+      <xdr:colOff>231287</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8675,8 +8675,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6451634" y="6972516"/>
-          <a:ext cx="491440" cy="848"/>
+          <a:off x="6412557" y="7602468"/>
+          <a:ext cx="486230" cy="848"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8711,15 +8711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245941</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>84623</xdr:rowOff>
+      <xdr:colOff>231287</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>18273</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>59741</xdr:rowOff>
+      <xdr:colOff>3619</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>125683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8734,8 +8734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943074" y="6646290"/>
-          <a:ext cx="1245532" cy="652451"/>
+          <a:off x="6898787" y="7265008"/>
+          <a:ext cx="1252370" cy="671175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8813,15 +8813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>18273</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>3880</xdr:rowOff>
+      <xdr:colOff>3619</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>69822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>694309</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>5008</xdr:rowOff>
+      <xdr:colOff>679655</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>70950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8838,8 +8838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8188606" y="6971947"/>
-          <a:ext cx="1666636" cy="1128"/>
+          <a:off x="8151157" y="7601899"/>
+          <a:ext cx="1665171" cy="1128"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8874,15 +8874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>129441</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78834</xdr:rowOff>
+      <xdr:colOff>114787</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>459972</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>37929</xdr:rowOff>
+      <xdr:colOff>445318</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8897,8 +8897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566908" y="4879434"/>
-          <a:ext cx="1185664" cy="636428"/>
+          <a:off x="3536460" y="5449469"/>
+          <a:ext cx="1187781" cy="655152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8956,15 +8956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>267232</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127873</xdr:rowOff>
+      <xdr:colOff>252578</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>245132</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95924</xdr:rowOff>
+      <xdr:colOff>230478</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22655</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8979,8 +8979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5033965" y="5741273"/>
-          <a:ext cx="1434167" cy="645384"/>
+          <a:off x="5000424" y="6333777"/>
+          <a:ext cx="1428631" cy="664109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9086,15 +9086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>459972</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>124943</xdr:rowOff>
+      <xdr:colOff>445318</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>51674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>278117</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>130051</xdr:rowOff>
+      <xdr:colOff>263463</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9111,8 +9111,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752572" y="5196476"/>
-          <a:ext cx="292278" cy="5108"/>
+          <a:off x="4724241" y="5774001"/>
+          <a:ext cx="287068" cy="5108"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9145,15 +9145,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1596196</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>70788</xdr:rowOff>
+      <xdr:colOff>1581542</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>197215</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38843</xdr:rowOff>
+      <xdr:colOff>182561</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9168,8 +9168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1858663" y="4871388"/>
-          <a:ext cx="1174885" cy="645388"/>
+          <a:off x="1837984" y="5441423"/>
+          <a:ext cx="1165442" cy="664112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9225,9 +9225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1596196</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122549</xdr:rowOff>
+      <xdr:colOff>1581542</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>51152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9246,8 +9246,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1459902" y="1603849"/>
-          <a:ext cx="398761" cy="3590233"/>
+          <a:off x="1453877" y="1600430"/>
+          <a:ext cx="384107" cy="4173049"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9281,15 +9281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>197215</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122549</xdr:rowOff>
+      <xdr:colOff>182561</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>49280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>129441</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>126115</xdr:rowOff>
+      <xdr:colOff>114787</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9307,8 +9307,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3033548" y="5194082"/>
-          <a:ext cx="533360" cy="3566"/>
+          <a:off x="3003426" y="5771607"/>
+          <a:ext cx="533034" cy="3566"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9341,15 +9341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>462182</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>110130</xdr:rowOff>
+      <xdr:colOff>447528</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>36861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>115062</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>121898</xdr:rowOff>
+      <xdr:colOff>100408</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48629</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9366,8 +9366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3298515" y="5181663"/>
-          <a:ext cx="254014" cy="824568"/>
+          <a:off x="3268393" y="5759188"/>
+          <a:ext cx="253688" cy="847037"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9400,15 +9400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>456802</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>86895</xdr:rowOff>
+      <xdr:colOff>442148</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>347679</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>5857</xdr:rowOff>
+      <xdr:colOff>333025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9421,13 +9421,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:endCxn id="43" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3293135" y="5700295"/>
-          <a:ext cx="1821277" cy="1273629"/>
+          <a:off x="3263013" y="6292799"/>
+          <a:ext cx="1817858" cy="1311077"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9461,15 +9460,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>259054</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>121292</xdr:rowOff>
+      <xdr:colOff>244400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245941</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4449</xdr:rowOff>
+      <xdr:colOff>231287</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>70391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9482,13 +9481,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="48" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6482054" y="5192825"/>
-          <a:ext cx="461020" cy="1779691"/>
+          <a:off x="6442977" y="5770350"/>
+          <a:ext cx="455810" cy="1832118"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9523,15 +9521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>245132</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44165</xdr:rowOff>
+      <xdr:colOff>230478</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245941</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4449</xdr:rowOff>
+      <xdr:colOff>231287</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>70391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9549,8 +9547,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6468132" y="6063965"/>
-          <a:ext cx="474942" cy="908551"/>
+          <a:off x="6429055" y="6667704"/>
+          <a:ext cx="469732" cy="934764"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9585,15 +9583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>388133</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>132527</xdr:rowOff>
+      <xdr:colOff>380806</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>149752</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133001</xdr:rowOff>
+      <xdr:colOff>142425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9608,8 +9606,635 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4680733" y="3036594"/>
-          <a:ext cx="1217886" cy="677807"/>
+          <a:off x="4659729" y="2865468"/>
+          <a:ext cx="1212350" cy="696532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>駅選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449730</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>79716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494543</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8727FD8A-14A3-4D8F-AC24-1CE8B2D9FC2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179384" y="2878601"/>
+          <a:ext cx="1407621" cy="671765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1589453</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88773</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9936F3-F7F6-49F3-B9A6-43B954CFB829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1845895" y="2066355"/>
+          <a:ext cx="1063743" cy="696532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規または継続選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398296</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58564</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A53CF1B-C03F-44D3-9F0B-49920ECC0544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219161" y="2852203"/>
+          <a:ext cx="1118326" cy="691323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カードをタッチ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88773</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396549</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EB0F53-5D2A-484F-B529-AA11AD97852D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2909638" y="2414621"/>
+          <a:ext cx="307776" cy="32017"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88773</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398296</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="カギ線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6A551-1465-48E5-8261-86FF45CE9A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2909638" y="2414621"/>
+          <a:ext cx="309523" cy="783244"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58564</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380806</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136426</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAFD351-A2ED-4825-BDB8-C74C0169BFFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337487" y="3197865"/>
+          <a:ext cx="322242" cy="15869"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449730</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB90A7B-8584-49A0-A84E-D96A48795737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5872079" y="3213734"/>
+          <a:ext cx="307305" cy="750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>372014</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133633</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3C1F73-1CD1-4CB8-B89E-4648371E4A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4650937" y="3626004"/>
+          <a:ext cx="1212350" cy="696532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9671,22 +10296,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457057</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6448</xdr:rowOff>
+      <xdr:colOff>440938</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>501870</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121367</xdr:rowOff>
+      <xdr:colOff>485751</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119902</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8727FD8A-14A3-4D8F-AC24-1CE8B2D9FC2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB0D0F8-C9FB-4BED-80A0-432949D6F776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9694,8 +10319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6205924" y="3045981"/>
-          <a:ext cx="1416413" cy="656786"/>
+          <a:off x="6170592" y="3639137"/>
+          <a:ext cx="1407621" cy="671765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9789,22 +10414,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>811534</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>122376</xdr:rowOff>
+      <xdr:colOff>795415</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>410722</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101829</xdr:rowOff>
+      <xdr:colOff>394603</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8C5344-CEC2-4A90-AADE-AD18F370D01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7191EF44-0E7E-4A94-B334-9A9F4DCE5888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9812,8 +10437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7932001" y="3026443"/>
-          <a:ext cx="1080854" cy="656786"/>
+          <a:off x="7887877" y="3615853"/>
+          <a:ext cx="1086553" cy="675511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9936,23 +10561,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1574799</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>389504</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74119</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>110541</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49772</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>113062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9936F3-F7F6-49F3-B9A6-43B954CFB829}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA362BB-2BEC-479F-A6E0-E6BFB64A136E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9960,94 +10585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1837266" y="2201334"/>
-          <a:ext cx="1073186" cy="677807"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>定期券購入</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>新規または継続選択</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405623</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>65891</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114527</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="テキスト ボックス 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A53CF1B-C03F-44D3-9F0B-49920ECC0544}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3241956" y="3023329"/>
-          <a:ext cx="1116535" cy="672598"/>
+          <a:off x="3210369" y="3612739"/>
+          <a:ext cx="1118326" cy="691323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10103,35 +10642,216 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>74119</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42571</xdr:rowOff>
+      <xdr:colOff>88773</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381895</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>72715</xdr:rowOff>
+      <xdr:colOff>389504</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+        <xdr:cNvPr id="80" name="カギ線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EB0F53-5D2A-484F-B529-AA11AD97852D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E28190F-66C5-4E38-B797-655AA400B79F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="65" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
+          <a:endCxn id="78" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2910452" y="2540238"/>
-          <a:ext cx="307776" cy="30144"/>
+          <a:off x="2909638" y="2414621"/>
+          <a:ext cx="300731" cy="1543780"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394603</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>694566</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC7CBE2-119F-4B2D-8233-6B44D6B5FDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="75" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8985647" y="3857204"/>
+          <a:ext cx="852919" cy="2744"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55452</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>377694</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C9786B-A2A9-4FF7-8D36-080702F2B79C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337487" y="3892431"/>
+          <a:ext cx="322242" cy="15869"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120187</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ADFA13-BD99-46AE-8870-E551218EB6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5858789" y="3882990"/>
+          <a:ext cx="322242" cy="15869"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10164,34 +10884,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>501870</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44369</xdr:rowOff>
+      <xdr:colOff>479501</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>811534</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63907</xdr:rowOff>
+      <xdr:colOff>789165</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB64BA52-5437-4DDB-BC5F-D898FD4D24EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98CD134-B8F8-4F70-8C6B-1A04854AB055}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="3"/>
-          <a:endCxn id="64" idx="1"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7622337" y="3354836"/>
-          <a:ext cx="309664" cy="19538"/>
+          <a:off x="7587005" y="3874152"/>
+          <a:ext cx="309664" cy="21411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10225,225 +10944,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74119</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42571</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494543</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405623</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>49161</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>792517</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="カギ線コネクタ 31">
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6A551-1465-48E5-8261-86FF45CE9A48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED68C854-47E3-4578-96FB-E660605A7C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="65" idx="3"/>
-          <a:endCxn id="67" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2910452" y="2540238"/>
-          <a:ext cx="331504" cy="819390"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>65891</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>49161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388133</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65031</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAFD351-A2ED-4825-BDB8-C74C0169BFFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="67" idx="3"/>
-          <a:endCxn id="62" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4358491" y="3359628"/>
-          <a:ext cx="322242" cy="15870"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>149752</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457057</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65031</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB90A7B-8584-49A0-A84E-D96A48795737}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="62" idx="3"/>
-          <a:endCxn id="63" idx="1"/>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5898619" y="3374374"/>
-          <a:ext cx="307305" cy="1124"/>
+          <a:off x="7602047" y="2378525"/>
+          <a:ext cx="297974" cy="764019"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>410722</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>694267</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0099F02F-A690-463A-B208-370A38701941}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="64" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9012855" y="3354836"/>
-          <a:ext cx="842345" cy="6431"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -13910,7 +14446,7 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="71" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="112" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
@@ -13935,45 +14471,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -13991,22 +14527,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -14018,18 +14554,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -15209,16 +15745,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.47244094488188981" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -15235,8 +15771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="139" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -15260,45 +15796,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -15316,22 +15852,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -15343,18 +15879,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -16256,24 +16792,8 @@
       <c r="J54" s="6"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="2"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q55" s="13"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D56" s="6"/>
@@ -16283,6 +16803,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
+      <c r="Q56" s="13"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D57" s="6"/>
@@ -16292,15 +16813,26 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D59" s="6"/>
@@ -16589,45 +17121,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -16645,22 +17177,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -16672,18 +17204,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256E4DA-F522-4B97-A8FC-C6D28CD38CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C80D3E-6AC0-404E-920F-708551256C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="1620" windowWidth="7752" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15432" yWindow="204" windowWidth="16632" windowHeight="12240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">駅員PC!$A$1:$Q$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">改札機能!$A$1:$Q$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">券売機PC!$A$1:$Q$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">券売機PC!$A$1:$Q$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">駅員PC!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">改札機能!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">券売機PC!$1:$5</definedName>
@@ -895,44 +895,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,8 +940,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1499,14 +1499,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>62570</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>102908</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>293076</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83109</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1521,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4820185" y="4528370"/>
-          <a:ext cx="1207429" cy="664047"/>
+          <a:off x="4799670" y="5360708"/>
+          <a:ext cx="1208406" cy="678701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,14 +1585,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123348</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238686</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>98340</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1607,8 +1607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="5247798"/>
-          <a:ext cx="1114986" cy="641742"/>
+          <a:off x="1949450" y="6359048"/>
+          <a:ext cx="1108636" cy="673492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,14 +1665,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>18071</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>111147</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>472221</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>87732</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2321</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1687,8 +1687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4771046" y="5235597"/>
-          <a:ext cx="1444750" cy="643335"/>
+          <a:off x="4755171" y="6346847"/>
+          <a:ext cx="1432050" cy="675085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,14 +1767,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>280274</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115629</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469551</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>92214</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1789,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6500099" y="5240079"/>
-          <a:ext cx="1094152" cy="643335"/>
+          <a:off x="6465174" y="6351329"/>
+          <a:ext cx="1090977" cy="675085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,14 +1903,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>817776</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120112</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>6666</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>96697</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1925,8 +1925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7942476" y="5244562"/>
-          <a:ext cx="1227240" cy="643335"/>
+          <a:off x="7904376" y="6355812"/>
+          <a:ext cx="1233590" cy="675085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2039,14 +2039,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>128155</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112295</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>643047</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71475</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2061,8 +2061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6331617" y="4537757"/>
-          <a:ext cx="1413661" cy="643026"/>
+          <a:off x="6313055" y="5370095"/>
+          <a:ext cx="1416592" cy="657680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,14 +2157,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>952711</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>92757</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552495</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>51937</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2179,8 +2179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8054942" y="4518219"/>
-          <a:ext cx="1084707" cy="643026"/>
+          <a:off x="8039311" y="5350557"/>
+          <a:ext cx="1085684" cy="657680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,14 +2692,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>326094</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44266</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473654</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3754</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2717,8 +2717,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4284457" y="5887128"/>
-          <a:ext cx="784284" cy="147560"/>
+          <a:off x="4255882" y="7036478"/>
+          <a:ext cx="822384" cy="147560"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2751,14 +2751,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>293076</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23501</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>128155</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>24625</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2777,8 +2777,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6027614" y="4859270"/>
-          <a:ext cx="304003" cy="1124"/>
+          <a:off x="6008076" y="5698935"/>
+          <a:ext cx="304979" cy="1124"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2812,14 +2812,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>156004</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35566</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>105790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>18071</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39289</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109512</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2837,8 +2837,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4432729" y="5560066"/>
-          <a:ext cx="338317" cy="3723"/>
+          <a:off x="4423204" y="6684390"/>
+          <a:ext cx="331967" cy="3722"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2870,16 +2870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>472221</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35566</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2321</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>105790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>280274</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40048</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2897,8 +2897,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6215796" y="5560066"/>
-          <a:ext cx="284303" cy="4482"/>
+          <a:off x="6187221" y="6684390"/>
+          <a:ext cx="277953" cy="4482"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2994,14 +2994,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>643047</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>3963</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>952711</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23501</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3019,7 +3019,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7745278" y="4839732"/>
+          <a:off x="7729647" y="5679397"/>
           <a:ext cx="309664" cy="19538"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3056,14 +3056,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469551</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40048</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>817776</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44531</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114755</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3081,7 +3081,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7594251" y="5564548"/>
+          <a:off x="7556151" y="6688872"/>
           <a:ext cx="348225" cy="4483"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3149,7 +3149,7 @@
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val -46954"/>
-            <a:gd name="adj2" fmla="val 2050509"/>
+            <a:gd name="adj2" fmla="val 2339970"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -3183,14 +3183,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552495</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>3963</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>674077</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>5672</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3207,8 +3207,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9139649" y="4839732"/>
-          <a:ext cx="678428" cy="1709"/>
+          <a:off x="9124995" y="5680863"/>
+          <a:ext cx="680382" cy="1709"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3244,14 +3244,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>6666</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44531</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>684680</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>48746</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>124946</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3268,7 +3268,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9169716" y="5569031"/>
+          <a:off x="9137966" y="6699331"/>
           <a:ext cx="678014" cy="4215"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3303,16 +3303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473655</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>107167</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3755</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>43667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>445953</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>77479</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>13979</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3327,8 +3327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4750380" y="6031717"/>
-          <a:ext cx="1439148" cy="637062"/>
+          <a:off x="4740855" y="7181067"/>
+          <a:ext cx="1420098" cy="668812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,14 +3407,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>42591</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>117768</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>680198</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>88080</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>24580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3429,8 +3429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6738666" y="6042318"/>
-          <a:ext cx="1066232" cy="637062"/>
+          <a:off x="6697391" y="7191668"/>
+          <a:ext cx="1069407" cy="668812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3509,14 +3509,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1711664</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>2943</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>79143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>386567</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>105010</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>41510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3531,8 +3531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1968839" y="6994293"/>
-          <a:ext cx="1246653" cy="635467"/>
+          <a:off x="1965664" y="8194443"/>
+          <a:ext cx="1240303" cy="660867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3605,14 +3605,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>305674</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>5212</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>81412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>283435</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>107279</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>43779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3627,8 +3627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5070857" y="7292508"/>
-          <a:ext cx="1437367" cy="660151"/>
+          <a:off x="5042774" y="8196712"/>
+          <a:ext cx="1425561" cy="660867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3771,14 +3771,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>386567</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>53977</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103906</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>79857</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>16357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3796,8 +3796,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219919" y="7620315"/>
-          <a:ext cx="318353" cy="25880"/>
+          <a:off x="3205967" y="8524877"/>
+          <a:ext cx="314239" cy="25880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3831,14 +3831,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>110429</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>14208</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>580639</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>122446</xdr:rowOff>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>58946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3853,8 +3853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6807443" y="7301504"/>
-          <a:ext cx="899506" cy="666322"/>
+          <a:off x="6807562" y="8006741"/>
+          <a:ext cx="1091838" cy="645872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,14 +3991,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>283435</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56246</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>110429</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>68327</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>6944</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4016,8 +4016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6508224" y="7622584"/>
-          <a:ext cx="299219" cy="12081"/>
+          <a:off x="6506435" y="8317596"/>
+          <a:ext cx="301127" cy="12081"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4050,15 +4050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>580639</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>68327</xdr:rowOff>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>6944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>893711</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74365</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12982</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4076,8 +4076,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7706949" y="7634665"/>
-          <a:ext cx="313072" cy="6038"/>
+          <a:off x="7899400" y="8329677"/>
+          <a:ext cx="313267" cy="6038"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4111,16 +4111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>893711</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>20245</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>96445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>83090</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>128484</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64984</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4135,8 +4135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020021" y="7307541"/>
-          <a:ext cx="1228534" cy="666323"/>
+          <a:off x="8212667" y="8012778"/>
+          <a:ext cx="1031356" cy="645873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4301,14 +4301,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>83090</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74056</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>697605</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74365</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12982</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4325,8 +4325,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9248555" y="7640394"/>
-          <a:ext cx="614515" cy="309"/>
+          <a:off x="9244023" y="8333291"/>
+          <a:ext cx="614515" cy="2424"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4362,14 +4362,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>680198</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>36249</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>112449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>39051</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>115251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4386,8 +4386,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7804898" y="6360849"/>
-          <a:ext cx="2034427" cy="2802"/>
+          <a:off x="7766798" y="7529249"/>
+          <a:ext cx="2040777" cy="2802"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4422,15 +4422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>146797</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>26334</xdr:rowOff>
+      <xdr:colOff>197597</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>102534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>672881</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108935</xdr:rowOff>
+      <xdr:colOff>723681</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>49668</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4445,8 +4445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6366622" y="6350934"/>
-          <a:ext cx="3469309" cy="482651"/>
+          <a:off x="6420597" y="7341534"/>
+          <a:ext cx="3464017" cy="489001"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4484,14 +4484,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537004</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115666</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>156004</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90658</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4506,8 +4506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3365929" y="5240116"/>
-          <a:ext cx="1066800" cy="641742"/>
+          <a:off x="3356404" y="6351366"/>
+          <a:ext cx="1066800" cy="673492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4650,14 +4650,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238686</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38716</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>537004</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>46398</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>117194</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4675,7 +4675,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3067611" y="5563216"/>
+          <a:off x="3058086" y="6688112"/>
           <a:ext cx="298318" cy="7682"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4710,14 +4710,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>445953</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>25648</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>42591</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>36249</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>109274</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4736,8 +4736,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6189528" y="6350248"/>
-          <a:ext cx="549138" cy="10601"/>
+          <a:off x="6160953" y="7515473"/>
+          <a:ext cx="536438" cy="10601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5132,14 +5132,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1437669</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127269</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1695451</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44168</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5156,8 +5156,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="931835" y="4547878"/>
-          <a:ext cx="1783799" cy="257782"/>
+          <a:off x="884210" y="5633728"/>
+          <a:ext cx="1872699" cy="257782"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5192,15 +5192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1447192</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3443</xdr:rowOff>
+      <xdr:colOff>1197435</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1711664</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>53977</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5212,16 +5212,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
           <a:endCxn id="83" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="77786" y="5420974"/>
-          <a:ext cx="3517634" cy="264472"/>
+        <a:xfrm>
+          <a:off x="1451435" y="1603849"/>
+          <a:ext cx="514229" cy="6921028"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -5472,16 +5475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>362372</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400472</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>130857</xdr:rowOff>
+      <xdr:rowOff>105457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330187</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368287</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>90037</xdr:rowOff>
+      <xdr:rowOff>64637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5496,8 +5499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4639097" y="3655107"/>
-          <a:ext cx="1434665" cy="625930"/>
+          <a:off x="5137572" y="3750357"/>
+          <a:ext cx="1415615" cy="657680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5590,13 +5593,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>131851</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220751</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>130858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>317789</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>90038</xdr:rowOff>
@@ -5614,8 +5617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6351676" y="3655108"/>
-          <a:ext cx="1090813" cy="625930"/>
+          <a:off x="8361451" y="3775758"/>
+          <a:ext cx="1087638" cy="657680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5739,15 +5742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>133115</xdr:colOff>
+      <xdr:colOff>184602</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>32916</xdr:rowOff>
+      <xdr:rowOff>15197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>424155</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400472</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>34870</xdr:rowOff>
+      <xdr:rowOff>31952</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5760,12 +5763,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4409840" y="3957216"/>
-          <a:ext cx="291040" cy="1954"/>
+          <a:off x="4451802" y="4079197"/>
+          <a:ext cx="685770" cy="16755"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5797,16 +5802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330187</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368287</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>40379</xdr:rowOff>
+      <xdr:rowOff>15197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>131851</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220751</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>40380</xdr:rowOff>
+      <xdr:rowOff>40598</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5824,8 +5829,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6073762" y="3964679"/>
-          <a:ext cx="277914" cy="1"/>
+          <a:off x="6553187" y="4079197"/>
+          <a:ext cx="1808264" cy="25401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5859,16 +5864,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>317789</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>43773</xdr:rowOff>
+      <xdr:rowOff>42063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>664308</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5885,8 +5890,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7442489" y="3968073"/>
-          <a:ext cx="2415886" cy="3852"/>
+          <a:off x="9461789" y="4057217"/>
+          <a:ext cx="346519" cy="6783"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6009,13 +6014,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>224120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>26491</xdr:rowOff>
+      <xdr:rowOff>25026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>8755</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6034,8 +6039,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057197" y="4041645"/>
-          <a:ext cx="331504" cy="802879"/>
+          <a:off x="3043520" y="4089026"/>
+          <a:ext cx="331504" cy="1595163"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6130,14 +6135,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89643</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>26143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>212553</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>64635</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6152,8 +6157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3388701" y="4515105"/>
-          <a:ext cx="1112544" cy="658838"/>
+          <a:off x="3375024" y="5347443"/>
+          <a:ext cx="1104729" cy="673492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6210,14 +6215,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>212553</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>8755</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>62570</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>24625</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99359</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6236,8 +6241,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4501245" y="4844524"/>
-          <a:ext cx="318940" cy="15870"/>
+          <a:off x="4479753" y="5684189"/>
+          <a:ext cx="319917" cy="15870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6271,14 +6276,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103906</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28823</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>105023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>450761</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>130890</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>67390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6293,8 +6298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3538272" y="7316119"/>
-          <a:ext cx="1205447" cy="660151"/>
+          <a:off x="3520206" y="8220323"/>
+          <a:ext cx="1197755" cy="660867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6373,14 +6378,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>450761</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56246</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>132446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>305674</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>79857</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>16357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6398,8 +6403,550 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4743719" y="7622584"/>
-          <a:ext cx="327138" cy="23611"/>
+          <a:off x="4717961" y="8527146"/>
+          <a:ext cx="324813" cy="23611"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223810</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468029</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8545557-2242-44CF-829A-570EB2FA8081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960910" y="4551987"/>
+          <a:ext cx="1222119" cy="714850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>駅選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>318134</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>842372</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC59A784-95AA-41D4-A615-F7C3C153CB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6503034" y="4577820"/>
+          <a:ext cx="1425938" cy="690083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>支払い画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>定期券購入</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282568</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>79463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9806191-38A4-4F63-B36C-4404794729E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4551422"/>
+          <a:ext cx="1120768" cy="709641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カードをタッチ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>842372</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220751</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>20662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="コネクタ: カギ線 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31FE455-BD75-4C66-AD2A-2B5F4B453FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7928972" y="4104598"/>
+          <a:ext cx="432479" cy="818264"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4043</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="カギ線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EDB177-2867-43E3-BC48-C64372E9D7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3043520" y="4089026"/>
+          <a:ext cx="385480" cy="817217"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282568</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223810</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32A41BE-6C5D-425F-93F4-49A87B94A60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="84" idx="3"/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549768" y="4906243"/>
+          <a:ext cx="411142" cy="3169"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468029</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>318134</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>20662</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1871A7-489F-4B1F-BDEC-93B4894C753D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6183029" y="4909412"/>
+          <a:ext cx="320005" cy="13450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7865,13 +8412,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>380871</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>44905</xdr:rowOff>
+      <xdr:rowOff>42686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>567307</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>674414</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>56463</xdr:rowOff>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7888,8 +8435,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8971638" y="2383097"/>
-          <a:ext cx="2336737" cy="11558"/>
+          <a:off x="8981837" y="2442548"/>
+          <a:ext cx="854094" cy="1107"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14446,8 +14993,8 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="112" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" topLeftCell="L37" zoomScale="90" zoomScaleNormal="190" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -14471,45 +15018,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -14527,22 +15074,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -14554,18 +15101,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -15490,33 +16037,11 @@
       <c r="J57" s="6"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="2"/>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q58" s="13"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="Q59" s="13"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D60" s="6"/>
@@ -15526,6 +16051,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
+      <c r="Q60" s="13"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D61" s="6"/>
@@ -15535,24 +16061,13 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
+      <c r="Q61" s="13"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="Q62" s="13"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D64" s="6"/>
@@ -15562,17 +16077,28 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" spans="1:17" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -15581,7 +16107,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -15590,7 +16116,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -15599,7 +16125,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -15608,7 +16134,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -15617,7 +16143,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -15626,7 +16152,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -15635,7 +16161,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -15644,7 +16170,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -15653,7 +16179,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -15662,7 +16188,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -15671,7 +16197,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -15680,7 +16206,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -15689,7 +16215,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -15698,7 +16224,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -15745,16 +16271,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.47244094488188981" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -15771,8 +16297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B3480B-3429-4057-B3CC-6A06E36D8E6C}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView topLeftCell="A10" zoomScale="48" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -15796,45 +16322,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -15852,22 +16378,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -15879,18 +16405,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -17096,7 +17622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E6446-CD8B-4EF1-B967-4AC6B9BBF3E5}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="117" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="117" zoomScaleNormal="181" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -17121,45 +17647,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -17177,22 +17703,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="74" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -17204,18 +17730,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>

--- a/03_設計書/画面遷移図.xlsx
+++ b/03_設計書/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\03_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C80D3E-6AC0-404E-920F-708551256C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24467E-E566-445D-A6DD-1E126B06EFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15432" yWindow="204" windowWidth="16632" windowHeight="12240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -895,6 +895,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,46 +978,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1607,8 +1607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1949450" y="6359048"/>
-          <a:ext cx="1108636" cy="673492"/>
+          <a:off x="1956866" y="6328271"/>
+          <a:ext cx="1107338" cy="670248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3513,8 +3513,8 @@
       <xdr:rowOff>79143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>386567</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750875</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>41510</xdr:rowOff>
     </xdr:to>
@@ -3531,8 +3531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1965664" y="8194443"/>
-          <a:ext cx="1240303" cy="660867"/>
+          <a:off x="1973080" y="8155231"/>
+          <a:ext cx="752321" cy="657622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3603,16 +3603,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305674</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339046</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>81412</xdr:rowOff>
+      <xdr:rowOff>98098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>283435</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355741</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>43779</xdr:rowOff>
+      <xdr:rowOff>60465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3627,8 +3627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5042774" y="8196712"/>
-          <a:ext cx="1425561" cy="660867"/>
+          <a:off x="5600739" y="8174186"/>
+          <a:ext cx="1435017" cy="657622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,16 +3769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>386567</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750875</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>130177</xdr:rowOff>
+      <xdr:rowOff>129852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>103906</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>16357</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195923</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3791,13 +3791,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
-          <a:endCxn id="74" idx="1"/>
+          <a:endCxn id="72" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3205967" y="8524877"/>
-          <a:ext cx="314239" cy="25880"/>
+          <a:off x="2725401" y="8484042"/>
+          <a:ext cx="296040" cy="366"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3829,14 +3829,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>110429</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>204984</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>90408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>778933</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>250539</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>58946</xdr:rowOff>
     </xdr:to>
@@ -3853,8 +3853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6807562" y="8006741"/>
-          <a:ext cx="1091838" cy="645872"/>
+          <a:off x="7313276" y="8166496"/>
+          <a:ext cx="1096781" cy="663793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3989,16 +3989,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>283435</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>130329</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355741</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>5152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>110429</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>204984</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>6944</xdr:rowOff>
+      <xdr:rowOff>9756</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4015,9 +4015,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6506435" y="8317596"/>
-          <a:ext cx="301127" cy="12081"/>
+        <a:xfrm flipV="1">
+          <a:off x="7035756" y="8498393"/>
+          <a:ext cx="277520" cy="4604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4049,16 +4049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>778933</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>250539</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>6944</xdr:rowOff>
+      <xdr:rowOff>5152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47895</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>12982</xdr:rowOff>
+      <xdr:rowOff>16751</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4076,8 +4076,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899400" y="8329677"/>
-          <a:ext cx="313267" cy="6038"/>
+          <a:off x="8410057" y="8498393"/>
+          <a:ext cx="231196" cy="11599"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4111,16 +4111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47895</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>96445</xdr:rowOff>
+      <xdr:rowOff>102007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>83090</xdr:colOff>
+      <xdr:colOff>522491</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>64984</xdr:rowOff>
+      <xdr:rowOff>70546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4135,8 +4135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8212667" y="8012778"/>
-          <a:ext cx="1031356" cy="645873"/>
+          <a:off x="8641253" y="8178095"/>
+          <a:ext cx="1030800" cy="663794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4300,15 +4300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>83090</xdr:colOff>
+      <xdr:colOff>522491</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>10558</xdr:rowOff>
+      <xdr:rowOff>11124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>697605</xdr:colOff>
+      <xdr:colOff>678569</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>12982</xdr:rowOff>
+      <xdr:rowOff>16751</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4325,8 +4325,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9244023" y="8333291"/>
-          <a:ext cx="614515" cy="2424"/>
+          <a:off x="9672053" y="8504365"/>
+          <a:ext cx="156078" cy="5627"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5156,8 +5156,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="884210" y="5633728"/>
-          <a:ext cx="1872699" cy="257782"/>
+          <a:off x="895844" y="5605871"/>
+          <a:ext cx="1864264" cy="257782"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5200,7 +5200,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1711664</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>130177</xdr:rowOff>
+      <xdr:rowOff>129852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5218,8 +5218,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1451435" y="1603849"/>
-          <a:ext cx="514229" cy="6921028"/>
+          <a:off x="1458851" y="1595135"/>
+          <a:ext cx="514229" cy="6888907"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6274,16 +6274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>103906</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131716</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>105023</xdr:rowOff>
+      <xdr:rowOff>88336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>450761</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83431</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>67390</xdr:rowOff>
+      <xdr:rowOff>50703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6298,8 +6298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3520206" y="8220323"/>
-          <a:ext cx="1197755" cy="660867"/>
+          <a:off x="4408928" y="8164424"/>
+          <a:ext cx="936196" cy="657622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6376,16 +6376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>450761</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83431</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>132446</xdr:rowOff>
+      <xdr:rowOff>139045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305674</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339046</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>16357</xdr:rowOff>
+      <xdr:rowOff>9756</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6402,9 +6402,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4717961" y="8527146"/>
-          <a:ext cx="324813" cy="23611"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5345124" y="8493235"/>
+          <a:ext cx="255615" cy="9762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6522,7 +6522,7 @@
             <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>新規</a:t>
+            <a:t>新規（発行なし）</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -6947,6 +6947,146 @@
         <a:xfrm>
           <a:off x="6183029" y="4909412"/>
           <a:ext cx="320005" cy="13450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>195923</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>73196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146356</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A66AE1F-E787-42B3-9B52-102097D6E011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3021441" y="8149284"/>
+          <a:ext cx="1107338" cy="670248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>IC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>カードをタッチ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146356</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>130218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131716</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>139045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9582CA0-77CA-4696-BC4E-108D69D90DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="1"/>
+          <a:endCxn id="72" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4128779" y="8484408"/>
+          <a:ext cx="280149" cy="8827"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14993,8 +15133,8 @@
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L37" zoomScale="90" zoomScaleNormal="190" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="103" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -15018,45 +15158,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -15074,22 +15214,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -15101,18 +15241,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -16271,16 +16411,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.47244094488188981" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -16322,45 +16462,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -16378,22 +16518,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -16405,18 +16545,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
@@ -17647,45 +17787,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="73" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>0</v>
       </c>
@@ -17703,22 +17843,22 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
@@ -17730,18 +17870,18 @@
       <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="25" t="s">
         <v>4</v>
       </c>
